--- a/docs/Studiendesign/evaluation/false-positives.xlsx
+++ b/docs/Studiendesign/evaluation/false-positives.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Studium\Master\2.Semester\Forschungsprojekt\Projektarbeit-Master\docs\Studiendesign\evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abaji\OneDrive\Desktop\newfolder10\Projektarbeit-Master\docs\Studiendesign\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47F0FD1-602D-46FC-A8C1-8CE4C5523757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE04FB21-625D-403C-BC09-8EF6DE5EE4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{6128157C-48C0-4165-9023-8F2C5068C8DD}"/>
+    <workbookView xWindow="51480" yWindow="2670" windowWidth="29040" windowHeight="15840" xr2:uid="{6128157C-48C0-4165-9023-8F2C5068C8DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3149" uniqueCount="597">
   <si>
     <t>File name</t>
   </si>
@@ -1110,6 +1110,723 @@
   </si>
   <si>
     <t>/#X-Amz-Target=IotThingsGraphFrontEndService.UploadEntityDefinitions</t>
+  </si>
+  <si>
+    <t>AutomationManagement84.json</t>
+  </si>
+  <si>
+    <t>/subscriptions/{subscriptionId}/resourceGroups/{resourceGroupName}/providers/Microsoft.Automation/automationAccounts/{automationAccountName}/sourceControls/{sourceControlName}/sourceControlSyncJobs</t>
+  </si>
+  <si>
+    <t>/subscriptions/{subscriptionId}/resourceGroups/{resourceGroupName}/providers/Microsoft.Automation/automationAccounts/{automationAccountName}/sourceControls/{sourceControlName}/sourceControlSyncJobs/{sourceControlSyncJobId}</t>
+  </si>
+  <si>
+    <t>AWS Performance Insights.json</t>
+  </si>
+  <si>
+    <t>/#X-Amz-Target=PerformanceInsightsv20180227.DescribeDimensionKeys</t>
+  </si>
+  <si>
+    <t>/#X-Amz-Target=PerformanceInsightsv20180227.GetDimensionKeyDetails</t>
+  </si>
+  <si>
+    <t>/#X-Amz-Target=PerformanceInsightsv20180227.GetResourceMetrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/#X-Amz-Target=PerformanceInsightsv20180227.GetResourceMetrics</t>
+  </si>
+  <si>
+    <t>Fun Generators API.json</t>
+  </si>
+  <si>
+    <t>/qrcode/business_card</t>
+  </si>
+  <si>
+    <t>/qrcode/decode</t>
+  </si>
+  <si>
+    <t>/qrcode/email</t>
+  </si>
+  <si>
+    <t>/qrcode/phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/qrcode/raw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/qrcode/skype</t>
+  </si>
+  <si>
+    <t>/qrcode/sms</t>
+  </si>
+  <si>
+    <t>/qrcode/text</t>
+  </si>
+  <si>
+    <t>/qrcode/url</t>
+  </si>
+  <si>
+    <t>NPR Sponsorship Service.json</t>
+  </si>
+  <si>
+    <t>/v2/ads</t>
+  </si>
+  <si>
+    <t>NetworkAdminManagementClient127.json</t>
+  </si>
+  <si>
+    <t>/subscriptions/{subscriptionId}/providers/Microsoft.Network.Admin/adminPublicIpAddresses</t>
+  </si>
+  <si>
+    <t>Handwrytten API.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/auth/authorization </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/auth/changePassword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/auth/logout  </t>
+  </si>
+  <si>
+    <t>/auth/register</t>
+  </si>
+  <si>
+    <t>/auth/resetPasswordRequest</t>
+  </si>
+  <si>
+    <t>/cards/createCustomCard</t>
+  </si>
+  <si>
+    <t>/cards/list</t>
+  </si>
+  <si>
+    <t>/cards/uploadCustomLogo</t>
+  </si>
+  <si>
+    <t>/fonts/listForCustomizer</t>
+  </si>
+  <si>
+    <t>/giftCards/view</t>
+  </si>
+  <si>
+    <t>/orders/singleStepOrder</t>
+  </si>
+  <si>
+    <t>/profile/address</t>
+  </si>
+  <si>
+    <t>/profile/deleteRecipient</t>
+  </si>
+  <si>
+    <t>GET and POST must not be used to tunnel other request methods</t>
+  </si>
+  <si>
+    <t>/profile/profileAddRecipient</t>
+  </si>
+  <si>
+    <t>/profile/recipientsList</t>
+  </si>
+  <si>
+    <t>/profile/updateAddress</t>
+  </si>
+  <si>
+    <t>/profile/updateRecipient</t>
+  </si>
+  <si>
+    <t>/templateCategories/list</t>
+  </si>
+  <si>
+    <t>/templates/delete</t>
+  </si>
+  <si>
+    <t>AdMob API.json</t>
+  </si>
+  <si>
+    <t>/v1beta/accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Hyphens (-) should be used to improve the readability of URIs</t>
+  </si>
+  <si>
+    <t>/v1beta/{name}</t>
+  </si>
+  <si>
+    <t>/v1beta/{parent}/adSources</t>
+  </si>
+  <si>
+    <t>/v1beta/{parent}/adUnits</t>
+  </si>
+  <si>
+    <t>/v1beta/{parent}/apps</t>
+  </si>
+  <si>
+    <t>/v1beta/{parent}/mediationReport:generate</t>
+  </si>
+  <si>
+    <t>/v1beta/{parent}/networkReport:generate</t>
+  </si>
+  <si>
+    <t>Amazon Neptune.json</t>
+  </si>
+  <si>
+    <t>/#Action=AddRoleToDBCluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">401 ("Unauthorized") must be used when there is a problem with the client's credentials </t>
+  </si>
+  <si>
+    <t>/#Action=AddTagsToResource</t>
+  </si>
+  <si>
+    <t>/#Action=ApplyPendingMaintenanceAction</t>
+  </si>
+  <si>
+    <t>/#Action=CopyDBClusterSnapshot</t>
+  </si>
+  <si>
+    <t>/#Action=CreateEventSubscription</t>
+  </si>
+  <si>
+    <t>/#Action=DeleteDBClusterSnapshot</t>
+  </si>
+  <si>
+    <t>/#Action=DeleteDBParameterGroup</t>
+  </si>
+  <si>
+    <t>/#Action=DeleteDBSubnetGroup</t>
+  </si>
+  <si>
+    <t>/#Action=DeleteEventSubscription</t>
+  </si>
+  <si>
+    <t>/#Action=DescribeDBClusterSnapshots</t>
+  </si>
+  <si>
+    <t>/#Action=DescribeDBParameterGroups</t>
+  </si>
+  <si>
+    <t>/#Action=DescribeDBParameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lowercase letters should be preferred in URI paths </t>
+  </si>
+  <si>
+    <t>/#Action=DescribeDBSubnetGroups</t>
+  </si>
+  <si>
+    <t>/#Action=DescribeOrderableDBInstanceOptions</t>
+  </si>
+  <si>
+    <t>/#Action=ModifyDBClusterEndpoint</t>
+  </si>
+  <si>
+    <t>/#Action=ModifyDBInstance</t>
+  </si>
+  <si>
+    <t>/#Action=ModifyDBParameterGroup</t>
+  </si>
+  <si>
+    <t>/#Action=ModifyDBSubnetGroup</t>
+  </si>
+  <si>
+    <t>/#Action=PromoteReadReplicaDBCluster</t>
+  </si>
+  <si>
+    <t>/#Action=RemoveRoleFromDBCluster</t>
+  </si>
+  <si>
+    <t>/#Action=RemoveTagsFromResource</t>
+  </si>
+  <si>
+    <t>/#Action=ResetDBClusterParameterGroup</t>
+  </si>
+  <si>
+    <t>/#Action=RestoreDBClusterFromSnapshot</t>
+  </si>
+  <si>
+    <t>/#Action=RestoreDBClusterToPointInTime</t>
+  </si>
+  <si>
+    <t>Workflow Executions API.json</t>
+  </si>
+  <si>
+    <t>/v1beta/{name}:cancel</t>
+  </si>
+  <si>
+    <t>/v1beta/{parent}/executions</t>
+  </si>
+  <si>
+    <t>IAM Service Account Credentials API.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/v1/{name}:generateAccessToken</t>
+  </si>
+  <si>
+    <t>/v1/{name}:generateIdToken</t>
+  </si>
+  <si>
+    <t>/v1/{name}:signBlob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/v1/{name}:signJwt</t>
+  </si>
+  <si>
+    <t>/v1/{name}:signJwt</t>
+  </si>
+  <si>
+    <t>Error Reporting API.json</t>
+  </si>
+  <si>
+    <t>/v1beta1/{groupName}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">401 ("Unauthorized") must be used when there is a problem with the client's credentials	</t>
+  </si>
+  <si>
+    <t>/v1beta1/{name}</t>
+  </si>
+  <si>
+    <t>/v1beta1/{projectName}/events:report</t>
+  </si>
+  <si>
+    <t>/v1beta1/{projectName}/events</t>
+  </si>
+  <si>
+    <t>/v1beta1/{projectName}/groupStats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Lowercase letters should be preferred in URI paths</t>
+  </si>
+  <si>
+    <t>Adyen Recurring API.json</t>
+  </si>
+  <si>
+    <t>/listRecurringDetails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/notifyShopper</t>
+  </si>
+  <si>
+    <t>/scheduleAccountUpdater</t>
+  </si>
+  <si>
+    <t>Compute Admin Client122.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/subscriptions/{subscriptionId}/providers/Microsoft.Compute.Admin/locations/{location}/artifactTypes/platformImage</t>
+  </si>
+  <si>
+    <t>/subscriptions/{subscriptionId}/providers/Microsoft.Compute.Admin/locations/{location}/artifactTypes/platformImage/publishers/{publisher}/offers/{offer}/skus/{sku}/versions/{version}</t>
+  </si>
+  <si>
+    <t>OnSched API Utility.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/utility/v1/health/heartbeat</t>
+  </si>
+  <si>
+    <t>/{planId}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Content-Type must be used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	GET must be used to retrieve a representation of a resource</t>
+  </si>
+  <si>
+    <t>NHL v3 Projections.json</t>
+  </si>
+  <si>
+    <t>/{format}/DfsSlatesByDate/{date}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/{format}/PlayerGameProjectionStatsByDate/{date}</t>
+  </si>
+  <si>
+    <t>/{format}/PlayerGameProjectionStatsByPlayer/{date}/{playerid}</t>
+  </si>
+  <si>
+    <t>Mixed Reality196.json</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.MixedReality/operations</t>
+  </si>
+  <si>
+    <t>/subscriptions/{subscriptionId}/providers/Microsoft.MixedReality/locations/{location}/checkNameAvailability</t>
+  </si>
+  <si>
+    <t>Cloud IoT API.json</t>
+  </si>
+  <si>
+    <t>/v1/{name}/configVersions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	401 ("Unauthorized") must be used when there is a problem with the client's credentials</t>
+  </si>
+  <si>
+    <t>/v1/{name}/states</t>
+  </si>
+  <si>
+    <t>/v1/{name}:modifyCloudToDeviceConfig</t>
+  </si>
+  <si>
+    <t>/v1/{name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/v1/{name}:sendCommandToDevice</t>
+  </si>
+  <si>
+    <t>/v1/{parent}/devices</t>
+  </si>
+  <si>
+    <t>/v1/{parent}/registries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/v1/{parent}:bindDeviceToGateway</t>
+  </si>
+  <si>
+    <t>/v1/{parent}:unbindDeviceFromGateway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/v1/{resource}:getIamPolicy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/v1/{resource}:setIamPolicy</t>
+  </si>
+  <si>
+    <t>/v1/{resource}:testIamPermissions</t>
+  </si>
+  <si>
+    <t>My Business Verifications API.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/v1/verificationTokens:generate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forward slash separator (/) must be used to indicate a hierarchical relationship	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/v1/{location}:fetchVerificationOptions</t>
+  </si>
+  <si>
+    <t>/v1/{name}/VoiceOfMerchantState</t>
+  </si>
+  <si>
+    <t>/v1/{name}:complete</t>
+  </si>
+  <si>
+    <t>/v1/{name}:verify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/v1/{parent}/verifications</t>
+  </si>
+  <si>
+    <t>ContainerServiceClient162.json</t>
+  </si>
+  <si>
+    <t>/subscriptions/{subscriptionId}/providers/Microsoft.ContainerService/containerServices</t>
+  </si>
+  <si>
+    <t>/subscriptions/{subscriptionId}/resourceGroups/{resourceGroupName}/providers/Microsoft.ContainerService/containerServices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/subscriptions/{subscriptionId}/resourceGroups/{resourceGroupName}/providers/Microsoft.ContainerService/containerServices/{containerServiceName}</t>
+  </si>
+  <si>
+    <t>Amazon Lookout for Metrics.json</t>
+  </si>
+  <si>
+    <t>/ActivateAnomalyDetector</t>
+  </si>
+  <si>
+    <t>/BackTestAnomalyDetector</t>
+  </si>
+  <si>
+    <t>/CreateAnomalyDetector</t>
+  </si>
+  <si>
+    <t>/CreateMetricSet</t>
+  </si>
+  <si>
+    <t>/DeleteAlert</t>
+  </si>
+  <si>
+    <t>/DeleteAnomalyDetector</t>
+  </si>
+  <si>
+    <t>/DescribeAlert</t>
+  </si>
+  <si>
+    <t>/DescribeAnomalyDetectionExecutions</t>
+  </si>
+  <si>
+    <t>/DescribeAnomalyDetector</t>
+  </si>
+  <si>
+    <t>/GetAnomalyGroup</t>
+  </si>
+  <si>
+    <t>/GetFeedback</t>
+  </si>
+  <si>
+    <t>/GetSampleData</t>
+  </si>
+  <si>
+    <t>/ListAlerts</t>
+  </si>
+  <si>
+    <t>/ListAnomalyDetectors</t>
+  </si>
+  <si>
+    <t>/ListAnomalyGroupSummaries</t>
+  </si>
+  <si>
+    <t>/ListAnomalyGroupTimeSeries</t>
+  </si>
+  <si>
+    <t>/tags/{resourceArn}</t>
+  </si>
+  <si>
+    <t>/PutFeedback</t>
+  </si>
+  <si>
+    <t>/tags/{resourceArn}#tagKeys</t>
+  </si>
+  <si>
+    <t>/UpdateAnomalyDetector</t>
+  </si>
+  <si>
+    <t>/UpdateMetricSet</t>
+  </si>
+  <si>
+    <t>Amazon AppConfig.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/applications/{ApplicationId}/configurationprofiles</t>
+  </si>
+  <si>
+    <t>/deploymentstrategies</t>
+  </si>
+  <si>
+    <t>/applications/{ApplicationId}/environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/applications/{ApplicationId}/configurationprofiles/{ConfigurationProfileId}/hostedconfigurationversions#Content-Type</t>
+  </si>
+  <si>
+    <t>/applications/{ApplicationId}</t>
+  </si>
+  <si>
+    <t>/applications/{ApplicationId}/configurationprofiles/{ConfigurationProfileId}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/deployementstrategies/{DeploymentStrategyId}</t>
+  </si>
+  <si>
+    <t>/applications/{ApplicationId}/environments/{EnvironmentId}</t>
+  </si>
+  <si>
+    <t>/applications/{ApplicationId}/configurationprofiles/{ConfigurationProfileId}/hostedconfigurationversions/{VersionNumber}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/applications/{Application}/environments/{Environment}/configurations/{Configuration}#client_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Forward slash separator (/) must be used to indicate a hierarchical relationship</t>
+  </si>
+  <si>
+    <t>/applications/{ApplicationId}/environments/{EnvironmentId}/deployments/{DeploymentNumber}</t>
+  </si>
+  <si>
+    <t>/applications/{ApplicationId}/configurationprofiles/{ConfigurationProfileId}/hostedconfigurationversions</t>
+  </si>
+  <si>
+    <t>/tags/{ResourceArn}#tagKeys</t>
+  </si>
+  <si>
+    <t>/applications/{ApplicationId}/configurationprofiles/{ConfigurationProfileId}/validators#configuration_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Underscores (_) should not be used in URI</t>
+  </si>
+  <si>
+    <t>LogicAppsManagementClient.json</t>
+  </si>
+  <si>
+    <t>/subscriptions/{subscriptionId}/providers/Microsoft.Web/connectionGateways</t>
+  </si>
+  <si>
+    <t>/subscriptions/{subscriptionId}/providers/Microsoft.Web/customApis</t>
+  </si>
+  <si>
+    <t>/subscriptions/{subscriptionId}/providers/Microsoft.Web/locations/{location}/connectionGatewayInstallations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/subscriptions/{subscriptionId}/providers/Microsoft.Web/locations/{location}/connectionGatewayInstallations/{gatewayId}</t>
+  </si>
+  <si>
+    <t>/subscriptions/{subscriptionId}/providers/Microsoft.Web/locations/{location}/extractApiDefinitionFromWsdl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/subscriptions/{subscriptionId}/providers/Microsoft.Web/locations/{location}/listWsdlInterfaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/subscriptions/{subscriptionId}/providers/Microsoft.Web/locations/{location}/managedApis</t>
+  </si>
+  <si>
+    <t>/subscriptions/{subscriptionId}/providers/Microsoft.Web/locations/{location}/managedApis/{apiName}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/subscriptions/{subscriptionId}/resourceGroups/{resourceGroupName}/providers/Microsoft.Web/connectionGateways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/subscriptions/{subscriptionId}/resourceGroups/{resourceGroupName}/providers/Microsoft.Web/connectionGateways/{connectionGatewayName}</t>
+  </si>
+  <si>
+    <t>/subscriptions/{subscriptionId}/resourceGroups/{resourceGroupName}/providers/Microsoft.Web/connections/{connectionName}</t>
+  </si>
+  <si>
+    <t>/subscriptions/{subscriptionId}/resourceGroups/{resourceGroupName}/providers/Microsoft.Web/connections/{connectionName}/confirmConsentCode</t>
+  </si>
+  <si>
+    <t>/subscriptions/{subscriptionId}/resourceGroups/{resourceGroupName}/providers/Microsoft.Web/customApis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/subscriptions/{subscriptionId}/resourceGroups/{resourceGroupName}/providers/Microsoft.Web/customApis/{apiName}</t>
+  </si>
+  <si>
+    <t>Labour Resource Department, Bihar.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/alimw/certificate</t>
+  </si>
+  <si>
+    <t>/apptu/certificate</t>
+  </si>
+  <si>
+    <t>UCO Bank.json</t>
+  </si>
+  <si>
+    <t>/tdcer/certificate</t>
+  </si>
+  <si>
+    <t>ApplicationInsightsManagementClient54.json</t>
+  </si>
+  <si>
+    <t>/subscriptions/{subscriptionId}/resourceGroup/{resourceGroupName}/providers/microsoft.insights/workbooktemplates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/subscriptions/{subscriptionId}/resourceGroup/{resourceGroupName}/providers/microsoft.insights/workbooktemplates/{resourceName}</t>
+  </si>
+  <si>
+    <t>Amazon Kinesis.json</t>
+  </si>
+  <si>
+    <t>/#X-Amz-Target=Kinesis_20131202.AddTagsToStream</t>
+  </si>
+  <si>
+    <t>/#X-Amz-Target=Kinesis_20131202.CreateStream</t>
+  </si>
+  <si>
+    <t>/#X-Amz-Target=Kinesis_20131202.DecreaseStreamRetentionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/#X-Amz-Target=Kinesis_20131202.DeleteStream</t>
+  </si>
+  <si>
+    <t>/#X-Amz-Target=Kinesis_20131202.DeregisterStreamConsumer</t>
+  </si>
+  <si>
+    <t>/#X-Amz-Target=Kinesis_20131202.DescribeLimits</t>
+  </si>
+  <si>
+    <t>/#X-Amz-Target=Kinesis_20131202.DescribeStreamConsumer</t>
+  </si>
+  <si>
+    <t>/#X-Amz-Target=Kinesis_20131202.DescribeStreamSummary</t>
+  </si>
+  <si>
+    <t>/#X-Amz-Target=Kinesis_20131202.DisableEnhancedMonitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/#X-Amz-Target=Kinesis_20131202.GetRecords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/#X-Amz-Target=Kinesis_20131202.IncreaseStreamRetentionPeriod</t>
+  </si>
+  <si>
+    <t>/#X-Amz-Target=Kinesis_20131202.ListShards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/#X-Amz-Target=Kinesis_20131202.MergeShards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/#X-Amz-Target=Kinesis_20131202.RegisterStreamConsumer</t>
+  </si>
+  <si>
+    <t>/#X-Amz-Target=Kinesis_20131202.StopStreamEncryption</t>
+  </si>
+  <si>
+    <t>GoToWebinar.json</t>
+  </si>
+  <si>
+    <t>/accounts/{accountKey}/webinars</t>
+  </si>
+  <si>
+    <t>/organizers/{organizerKey}/historicalWebinars</t>
+  </si>
+  <si>
+    <t>/organizers/{organizerKey}/upcomingWebinars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/organizers/{organizerKey}/webinars</t>
+  </si>
+  <si>
+    <t>/organizers/{organizerKey}/webinars/{webinarKey}</t>
+  </si>
+  <si>
+    <t>/organizers/{organizerKey}/webinars/{webinarKey}/attendees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/organizers/{organizerKey}/webinars/{webinarKey}/audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/organizers/{organizerKey}/webinars/{webinarKey}/coorganizers</t>
+  </si>
+  <si>
+    <t>/organizers/{organizerKey}/webinars/{webinarKey}/coorganizers/{coorganizerKey}/resendInvitation</t>
+  </si>
+  <si>
+    <t>/organizers/{organizerKey}/webinars/{webinarKey}/panelists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/organizers/{organizerKey}/webinars/{webinarKey}/panelists/{panelistKey}/resendInvitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/organizers/{organizerKey}/webinars/{webinarKey}/registrants</t>
+  </si>
+  <si>
+    <t>/organizers/{organizerKey}/webinars/{webinarKey}/registrants/{registrantKey}</t>
+  </si>
+  <si>
+    <t>/organizers/{organizerKey}/webinars/{webinarKey}/sessions/{sessionKey}/attendees/{registrantKey}/polls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/organizers/{organizerKey}/webinars/{webinarKey}/sessions/{sessionKey}/performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	A plural noun should be used for collection or store names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/organizers/{organizerKey}/webinars/{webinarKey}/sessions/{sessionKey}/questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	/organizers/{organizerKey}/webinars/{webinarKey}/sessions/{sessionKey}/surveys</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1171,7 +1888,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1467,13 +2184,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE9365C-BBA8-4B27-B55E-F28FE9626962}">
-  <dimension ref="A1:E580"/>
+  <dimension ref="A1:E1049"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A554" workbookViewId="0">
-      <selection activeCell="E582" sqref="E582"/>
+    <sheetView tabSelected="1" topLeftCell="A1036" workbookViewId="0">
+      <selection activeCell="B1051" sqref="B1051"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="81.28515625" customWidth="1"/>
@@ -11334,6 +12051,7985 @@
       <c r="C580" t="s">
         <v>9</v>
       </c>
+      <c r="D580">
+        <v>0</v>
+      </c>
+      <c r="E580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>358</v>
+      </c>
+      <c r="B581" t="s">
+        <v>359</v>
+      </c>
+      <c r="C581" t="s">
+        <v>7</v>
+      </c>
+      <c r="D581">
+        <v>0</v>
+      </c>
+      <c r="E581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>358</v>
+      </c>
+      <c r="B582" t="s">
+        <v>359</v>
+      </c>
+      <c r="C582" t="s">
+        <v>41</v>
+      </c>
+      <c r="D582">
+        <v>0</v>
+      </c>
+      <c r="E582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>358</v>
+      </c>
+      <c r="B583" t="s">
+        <v>359</v>
+      </c>
+      <c r="C583" t="s">
+        <v>9</v>
+      </c>
+      <c r="D583">
+        <v>0</v>
+      </c>
+      <c r="E583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>358</v>
+      </c>
+      <c r="B584" t="s">
+        <v>359</v>
+      </c>
+      <c r="C584" t="s">
+        <v>71</v>
+      </c>
+      <c r="D584">
+        <v>0</v>
+      </c>
+      <c r="E584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>358</v>
+      </c>
+      <c r="B585" t="s">
+        <v>360</v>
+      </c>
+      <c r="C585" t="s">
+        <v>7</v>
+      </c>
+      <c r="D585">
+        <v>0</v>
+      </c>
+      <c r="E585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>358</v>
+      </c>
+      <c r="B586" t="s">
+        <v>360</v>
+      </c>
+      <c r="C586" t="s">
+        <v>7</v>
+      </c>
+      <c r="D586">
+        <v>0</v>
+      </c>
+      <c r="E586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>358</v>
+      </c>
+      <c r="B587" t="s">
+        <v>360</v>
+      </c>
+      <c r="C587" t="s">
+        <v>99</v>
+      </c>
+      <c r="D587">
+        <v>0</v>
+      </c>
+      <c r="E587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>358</v>
+      </c>
+      <c r="B588" t="s">
+        <v>360</v>
+      </c>
+      <c r="C588" t="s">
+        <v>41</v>
+      </c>
+      <c r="D588">
+        <v>0</v>
+      </c>
+      <c r="E588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>361</v>
+      </c>
+      <c r="B589" t="s">
+        <v>362</v>
+      </c>
+      <c r="C589" t="s">
+        <v>7</v>
+      </c>
+      <c r="D589">
+        <v>0</v>
+      </c>
+      <c r="E589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>361</v>
+      </c>
+      <c r="B590" t="s">
+        <v>362</v>
+      </c>
+      <c r="C590" t="s">
+        <v>99</v>
+      </c>
+      <c r="D590">
+        <v>0</v>
+      </c>
+      <c r="E590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>361</v>
+      </c>
+      <c r="B591" t="s">
+        <v>362</v>
+      </c>
+      <c r="C591" t="s">
+        <v>41</v>
+      </c>
+      <c r="D591">
+        <v>0</v>
+      </c>
+      <c r="E591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>361</v>
+      </c>
+      <c r="B592" t="s">
+        <v>362</v>
+      </c>
+      <c r="C592" t="s">
+        <v>9</v>
+      </c>
+      <c r="D592">
+        <v>0</v>
+      </c>
+      <c r="E592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>361</v>
+      </c>
+      <c r="B593" t="s">
+        <v>362</v>
+      </c>
+      <c r="C593" t="s">
+        <v>71</v>
+      </c>
+      <c r="D593">
+        <v>0</v>
+      </c>
+      <c r="E593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>361</v>
+      </c>
+      <c r="B594" t="s">
+        <v>363</v>
+      </c>
+      <c r="C594" t="s">
+        <v>7</v>
+      </c>
+      <c r="D594">
+        <v>0</v>
+      </c>
+      <c r="E594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>361</v>
+      </c>
+      <c r="B595" t="s">
+        <v>363</v>
+      </c>
+      <c r="C595" t="s">
+        <v>99</v>
+      </c>
+      <c r="D595">
+        <v>0</v>
+      </c>
+      <c r="E595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>361</v>
+      </c>
+      <c r="B596" t="s">
+        <v>363</v>
+      </c>
+      <c r="C596" t="s">
+        <v>41</v>
+      </c>
+      <c r="D596">
+        <v>0</v>
+      </c>
+      <c r="E596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>361</v>
+      </c>
+      <c r="B597" t="s">
+        <v>363</v>
+      </c>
+      <c r="C597" t="s">
+        <v>9</v>
+      </c>
+      <c r="D597">
+        <v>0</v>
+      </c>
+      <c r="E597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>361</v>
+      </c>
+      <c r="B598" t="s">
+        <v>363</v>
+      </c>
+      <c r="C598" t="s">
+        <v>71</v>
+      </c>
+      <c r="D598">
+        <v>0</v>
+      </c>
+      <c r="E598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>361</v>
+      </c>
+      <c r="B599" t="s">
+        <v>364</v>
+      </c>
+      <c r="C599" t="s">
+        <v>7</v>
+      </c>
+      <c r="D599">
+        <v>0</v>
+      </c>
+      <c r="E599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>361</v>
+      </c>
+      <c r="B600" t="s">
+        <v>365</v>
+      </c>
+      <c r="C600" t="s">
+        <v>99</v>
+      </c>
+      <c r="D600">
+        <v>0</v>
+      </c>
+      <c r="E600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>361</v>
+      </c>
+      <c r="B601" t="s">
+        <v>365</v>
+      </c>
+      <c r="C601" t="s">
+        <v>41</v>
+      </c>
+      <c r="D601">
+        <v>0</v>
+      </c>
+      <c r="E601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>361</v>
+      </c>
+      <c r="B602" t="s">
+        <v>365</v>
+      </c>
+      <c r="C602" t="s">
+        <v>9</v>
+      </c>
+      <c r="D602">
+        <v>0</v>
+      </c>
+      <c r="E602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>361</v>
+      </c>
+      <c r="B603" t="s">
+        <v>364</v>
+      </c>
+      <c r="C603" t="s">
+        <v>71</v>
+      </c>
+      <c r="D603">
+        <v>0</v>
+      </c>
+      <c r="E603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>366</v>
+      </c>
+      <c r="B604" t="s">
+        <v>367</v>
+      </c>
+      <c r="C604" t="s">
+        <v>25</v>
+      </c>
+      <c r="D604">
+        <v>0</v>
+      </c>
+      <c r="E604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>366</v>
+      </c>
+      <c r="B605" t="s">
+        <v>367</v>
+      </c>
+      <c r="C605" t="s">
+        <v>9</v>
+      </c>
+      <c r="D605">
+        <v>0</v>
+      </c>
+      <c r="E605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>366</v>
+      </c>
+      <c r="B606" t="s">
+        <v>367</v>
+      </c>
+      <c r="C606" t="s">
+        <v>12</v>
+      </c>
+      <c r="D606">
+        <v>0</v>
+      </c>
+      <c r="E606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>366</v>
+      </c>
+      <c r="B607" t="s">
+        <v>368</v>
+      </c>
+      <c r="C607" t="s">
+        <v>25</v>
+      </c>
+      <c r="D607">
+        <v>0</v>
+      </c>
+      <c r="E607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>366</v>
+      </c>
+      <c r="B608" t="s">
+        <v>368</v>
+      </c>
+      <c r="C608" t="s">
+        <v>9</v>
+      </c>
+      <c r="D608">
+        <v>0</v>
+      </c>
+      <c r="E608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>366</v>
+      </c>
+      <c r="B609" t="s">
+        <v>369</v>
+      </c>
+      <c r="C609" t="s">
+        <v>25</v>
+      </c>
+      <c r="D609">
+        <v>0</v>
+      </c>
+      <c r="E609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>366</v>
+      </c>
+      <c r="B610" t="s">
+        <v>369</v>
+      </c>
+      <c r="C610" t="s">
+        <v>9</v>
+      </c>
+      <c r="D610">
+        <v>0</v>
+      </c>
+      <c r="E610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>366</v>
+      </c>
+      <c r="B611" t="s">
+        <v>370</v>
+      </c>
+      <c r="C611" t="s">
+        <v>25</v>
+      </c>
+      <c r="D611">
+        <v>0</v>
+      </c>
+      <c r="E611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>366</v>
+      </c>
+      <c r="B612" t="s">
+        <v>370</v>
+      </c>
+      <c r="C612" t="s">
+        <v>9</v>
+      </c>
+      <c r="D612">
+        <v>0</v>
+      </c>
+      <c r="E612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>366</v>
+      </c>
+      <c r="B613" t="s">
+        <v>371</v>
+      </c>
+      <c r="C613" t="s">
+        <v>9</v>
+      </c>
+      <c r="D613">
+        <v>0</v>
+      </c>
+      <c r="E613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>366</v>
+      </c>
+      <c r="B614" t="s">
+        <v>372</v>
+      </c>
+      <c r="C614" t="s">
+        <v>25</v>
+      </c>
+      <c r="D614">
+        <v>0</v>
+      </c>
+      <c r="E614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>366</v>
+      </c>
+      <c r="B615" t="s">
+        <v>372</v>
+      </c>
+      <c r="C615" t="s">
+        <v>9</v>
+      </c>
+      <c r="D615">
+        <v>0</v>
+      </c>
+      <c r="E615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>366</v>
+      </c>
+      <c r="B616" t="s">
+        <v>373</v>
+      </c>
+      <c r="C616" t="s">
+        <v>9</v>
+      </c>
+      <c r="D616">
+        <v>0</v>
+      </c>
+      <c r="E616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>366</v>
+      </c>
+      <c r="B617" t="s">
+        <v>374</v>
+      </c>
+      <c r="C617" t="s">
+        <v>25</v>
+      </c>
+      <c r="D617">
+        <v>0</v>
+      </c>
+      <c r="E617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>366</v>
+      </c>
+      <c r="B618" t="s">
+        <v>374</v>
+      </c>
+      <c r="C618" t="s">
+        <v>9</v>
+      </c>
+      <c r="D618">
+        <v>0</v>
+      </c>
+      <c r="E618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>366</v>
+      </c>
+      <c r="B619" t="s">
+        <v>375</v>
+      </c>
+      <c r="C619" t="s">
+        <v>25</v>
+      </c>
+      <c r="D619">
+        <v>0</v>
+      </c>
+      <c r="E619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>366</v>
+      </c>
+      <c r="B620" t="s">
+        <v>375</v>
+      </c>
+      <c r="C620" t="s">
+        <v>9</v>
+      </c>
+      <c r="D620">
+        <v>0</v>
+      </c>
+      <c r="E620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>376</v>
+      </c>
+      <c r="B621" t="s">
+        <v>377</v>
+      </c>
+      <c r="C621" t="s">
+        <v>76</v>
+      </c>
+      <c r="D621">
+        <v>0</v>
+      </c>
+      <c r="E621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>376</v>
+      </c>
+      <c r="B622" t="s">
+        <v>377</v>
+      </c>
+      <c r="C622" t="s">
+        <v>76</v>
+      </c>
+      <c r="D622">
+        <v>0</v>
+      </c>
+      <c r="E622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>376</v>
+      </c>
+      <c r="B623" t="s">
+        <v>377</v>
+      </c>
+      <c r="C623" t="s">
+        <v>9</v>
+      </c>
+      <c r="D623">
+        <v>0</v>
+      </c>
+      <c r="E623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>378</v>
+      </c>
+      <c r="B624" t="s">
+        <v>379</v>
+      </c>
+      <c r="C624" t="s">
+        <v>7</v>
+      </c>
+      <c r="D624">
+        <v>0</v>
+      </c>
+      <c r="E624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>378</v>
+      </c>
+      <c r="B625" t="s">
+        <v>379</v>
+      </c>
+      <c r="C625" t="s">
+        <v>41</v>
+      </c>
+      <c r="D625">
+        <v>0</v>
+      </c>
+      <c r="E625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>378</v>
+      </c>
+      <c r="B626" t="s">
+        <v>379</v>
+      </c>
+      <c r="C626" t="s">
+        <v>9</v>
+      </c>
+      <c r="D626">
+        <v>0</v>
+      </c>
+      <c r="E626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>378</v>
+      </c>
+      <c r="B627" t="s">
+        <v>379</v>
+      </c>
+      <c r="C627" t="s">
+        <v>71</v>
+      </c>
+      <c r="D627">
+        <v>0</v>
+      </c>
+      <c r="E627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>380</v>
+      </c>
+      <c r="B628" t="s">
+        <v>381</v>
+      </c>
+      <c r="C628" t="s">
+        <v>25</v>
+      </c>
+      <c r="D628">
+        <v>0</v>
+      </c>
+      <c r="E628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>380</v>
+      </c>
+      <c r="B629" t="s">
+        <v>381</v>
+      </c>
+      <c r="C629" t="s">
+        <v>76</v>
+      </c>
+      <c r="D629">
+        <v>0</v>
+      </c>
+      <c r="E629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>380</v>
+      </c>
+      <c r="B630" t="s">
+        <v>381</v>
+      </c>
+      <c r="C630" t="s">
+        <v>99</v>
+      </c>
+      <c r="D630">
+        <v>1</v>
+      </c>
+      <c r="E630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>380</v>
+      </c>
+      <c r="B631" t="s">
+        <v>382</v>
+      </c>
+      <c r="C631" t="s">
+        <v>25</v>
+      </c>
+      <c r="D631">
+        <v>0</v>
+      </c>
+      <c r="E631">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>380</v>
+      </c>
+      <c r="B632" t="s">
+        <v>382</v>
+      </c>
+      <c r="C632" t="s">
+        <v>76</v>
+      </c>
+      <c r="D632">
+        <v>0</v>
+      </c>
+      <c r="E632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>380</v>
+      </c>
+      <c r="B633" t="s">
+        <v>382</v>
+      </c>
+      <c r="C633" t="s">
+        <v>9</v>
+      </c>
+      <c r="D633">
+        <v>0</v>
+      </c>
+      <c r="E633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>380</v>
+      </c>
+      <c r="B634" t="s">
+        <v>383</v>
+      </c>
+      <c r="C634" t="s">
+        <v>25</v>
+      </c>
+      <c r="D634">
+        <v>0</v>
+      </c>
+      <c r="E634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>380</v>
+      </c>
+      <c r="B635" t="s">
+        <v>383</v>
+      </c>
+      <c r="C635" t="s">
+        <v>76</v>
+      </c>
+      <c r="D635">
+        <v>0</v>
+      </c>
+      <c r="E635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>380</v>
+      </c>
+      <c r="B636" t="s">
+        <v>384</v>
+      </c>
+      <c r="C636" t="s">
+        <v>25</v>
+      </c>
+      <c r="D636">
+        <v>0</v>
+      </c>
+      <c r="E636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>380</v>
+      </c>
+      <c r="B637" t="s">
+        <v>385</v>
+      </c>
+      <c r="C637" t="s">
+        <v>25</v>
+      </c>
+      <c r="D637">
+        <v>0</v>
+      </c>
+      <c r="E637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>380</v>
+      </c>
+      <c r="B638" t="s">
+        <v>386</v>
+      </c>
+      <c r="C638" t="s">
+        <v>84</v>
+      </c>
+      <c r="D638">
+        <v>0</v>
+      </c>
+      <c r="E638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>380</v>
+      </c>
+      <c r="B639" t="s">
+        <v>387</v>
+      </c>
+      <c r="C639" t="s">
+        <v>76</v>
+      </c>
+      <c r="D639">
+        <v>0</v>
+      </c>
+      <c r="E639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>380</v>
+      </c>
+      <c r="B640" t="s">
+        <v>388</v>
+      </c>
+      <c r="C640" t="s">
+        <v>9</v>
+      </c>
+      <c r="D640">
+        <v>0</v>
+      </c>
+      <c r="E640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>380</v>
+      </c>
+      <c r="B641" t="s">
+        <v>389</v>
+      </c>
+      <c r="C641" t="s">
+        <v>9</v>
+      </c>
+      <c r="D641">
+        <v>0</v>
+      </c>
+      <c r="E641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>380</v>
+      </c>
+      <c r="B642" t="s">
+        <v>390</v>
+      </c>
+      <c r="C642" t="s">
+        <v>99</v>
+      </c>
+      <c r="D642">
+        <v>0</v>
+      </c>
+      <c r="E642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>380</v>
+      </c>
+      <c r="B643" t="s">
+        <v>390</v>
+      </c>
+      <c r="C643" t="s">
+        <v>9</v>
+      </c>
+      <c r="D643">
+        <v>0</v>
+      </c>
+      <c r="E643">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>380</v>
+      </c>
+      <c r="B644" t="s">
+        <v>391</v>
+      </c>
+      <c r="C644" t="s">
+        <v>71</v>
+      </c>
+      <c r="D644">
+        <v>0</v>
+      </c>
+      <c r="E644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>380</v>
+      </c>
+      <c r="B645" t="s">
+        <v>392</v>
+      </c>
+      <c r="C645" t="s">
+        <v>25</v>
+      </c>
+      <c r="D645">
+        <v>0</v>
+      </c>
+      <c r="E645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>380</v>
+      </c>
+      <c r="B646" t="s">
+        <v>393</v>
+      </c>
+      <c r="C646" t="s">
+        <v>84</v>
+      </c>
+      <c r="D646">
+        <v>0</v>
+      </c>
+      <c r="E646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>380</v>
+      </c>
+      <c r="B647" t="s">
+        <v>393</v>
+      </c>
+      <c r="C647" t="s">
+        <v>99</v>
+      </c>
+      <c r="D647">
+        <v>0</v>
+      </c>
+      <c r="E647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>380</v>
+      </c>
+      <c r="B648" t="s">
+        <v>393</v>
+      </c>
+      <c r="C648" t="s">
+        <v>394</v>
+      </c>
+      <c r="D648">
+        <v>0</v>
+      </c>
+      <c r="E648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>380</v>
+      </c>
+      <c r="B649" t="s">
+        <v>395</v>
+      </c>
+      <c r="C649" t="s">
+        <v>25</v>
+      </c>
+      <c r="D649">
+        <v>0</v>
+      </c>
+      <c r="E649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>380</v>
+      </c>
+      <c r="B650" t="s">
+        <v>396</v>
+      </c>
+      <c r="C650" t="s">
+        <v>25</v>
+      </c>
+      <c r="D650">
+        <v>0</v>
+      </c>
+      <c r="E650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>380</v>
+      </c>
+      <c r="B651" t="s">
+        <v>396</v>
+      </c>
+      <c r="C651" t="s">
+        <v>99</v>
+      </c>
+      <c r="D651">
+        <v>0</v>
+      </c>
+      <c r="E651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>380</v>
+      </c>
+      <c r="B652" t="s">
+        <v>397</v>
+      </c>
+      <c r="C652" t="s">
+        <v>84</v>
+      </c>
+      <c r="D652">
+        <v>0</v>
+      </c>
+      <c r="E652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>380</v>
+      </c>
+      <c r="B653" t="s">
+        <v>398</v>
+      </c>
+      <c r="C653" t="s">
+        <v>84</v>
+      </c>
+      <c r="D653">
+        <v>0</v>
+      </c>
+      <c r="E653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>380</v>
+      </c>
+      <c r="B654" t="s">
+        <v>399</v>
+      </c>
+      <c r="C654" t="s">
+        <v>71</v>
+      </c>
+      <c r="D654">
+        <v>0</v>
+      </c>
+      <c r="E654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>380</v>
+      </c>
+      <c r="B655" t="s">
+        <v>399</v>
+      </c>
+      <c r="C655" t="s">
+        <v>99</v>
+      </c>
+      <c r="D655">
+        <v>0</v>
+      </c>
+      <c r="E655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>380</v>
+      </c>
+      <c r="B656" t="s">
+        <v>400</v>
+      </c>
+      <c r="C656" t="s">
+        <v>84</v>
+      </c>
+      <c r="D656">
+        <v>0</v>
+      </c>
+      <c r="E656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>401</v>
+      </c>
+      <c r="B657" t="s">
+        <v>402</v>
+      </c>
+      <c r="C657" t="s">
+        <v>7</v>
+      </c>
+      <c r="D657">
+        <v>0</v>
+      </c>
+      <c r="E657">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>401</v>
+      </c>
+      <c r="B658" t="s">
+        <v>402</v>
+      </c>
+      <c r="C658" t="s">
+        <v>403</v>
+      </c>
+      <c r="D658">
+        <v>0</v>
+      </c>
+      <c r="E658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>401</v>
+      </c>
+      <c r="B659" t="s">
+        <v>404</v>
+      </c>
+      <c r="C659" t="s">
+        <v>7</v>
+      </c>
+      <c r="D659">
+        <v>0</v>
+      </c>
+      <c r="E659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>401</v>
+      </c>
+      <c r="B660" t="s">
+        <v>404</v>
+      </c>
+      <c r="C660" t="s">
+        <v>403</v>
+      </c>
+      <c r="D660">
+        <v>0</v>
+      </c>
+      <c r="E660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>401</v>
+      </c>
+      <c r="B661" t="s">
+        <v>404</v>
+      </c>
+      <c r="C661" t="s">
+        <v>25</v>
+      </c>
+      <c r="D661">
+        <v>0</v>
+      </c>
+      <c r="E661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>401</v>
+      </c>
+      <c r="B662" t="s">
+        <v>405</v>
+      </c>
+      <c r="C662" t="s">
+        <v>403</v>
+      </c>
+      <c r="D662">
+        <v>0</v>
+      </c>
+      <c r="E662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>401</v>
+      </c>
+      <c r="B663" t="s">
+        <v>405</v>
+      </c>
+      <c r="C663" t="s">
+        <v>25</v>
+      </c>
+      <c r="D663">
+        <v>0</v>
+      </c>
+      <c r="E663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>401</v>
+      </c>
+      <c r="B664" t="s">
+        <v>405</v>
+      </c>
+      <c r="C664" t="s">
+        <v>71</v>
+      </c>
+      <c r="D664">
+        <v>0</v>
+      </c>
+      <c r="E664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>401</v>
+      </c>
+      <c r="B665" t="s">
+        <v>406</v>
+      </c>
+      <c r="C665" t="s">
+        <v>7</v>
+      </c>
+      <c r="D665">
+        <v>0</v>
+      </c>
+      <c r="E665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>401</v>
+      </c>
+      <c r="B666" t="s">
+        <v>406</v>
+      </c>
+      <c r="C666" t="s">
+        <v>403</v>
+      </c>
+      <c r="D666">
+        <v>0</v>
+      </c>
+      <c r="E666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>401</v>
+      </c>
+      <c r="B667" t="s">
+        <v>406</v>
+      </c>
+      <c r="C667" t="s">
+        <v>25</v>
+      </c>
+      <c r="D667">
+        <v>0</v>
+      </c>
+      <c r="E667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>401</v>
+      </c>
+      <c r="B668" t="s">
+        <v>406</v>
+      </c>
+      <c r="C668" t="s">
+        <v>71</v>
+      </c>
+      <c r="D668">
+        <v>0</v>
+      </c>
+      <c r="E668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>401</v>
+      </c>
+      <c r="B669" t="s">
+        <v>407</v>
+      </c>
+      <c r="C669" t="s">
+        <v>7</v>
+      </c>
+      <c r="D669">
+        <v>0</v>
+      </c>
+      <c r="E669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>401</v>
+      </c>
+      <c r="B670" t="s">
+        <v>407</v>
+      </c>
+      <c r="C670" t="s">
+        <v>403</v>
+      </c>
+      <c r="D670">
+        <v>0</v>
+      </c>
+      <c r="E670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>401</v>
+      </c>
+      <c r="B671" t="s">
+        <v>407</v>
+      </c>
+      <c r="C671" t="s">
+        <v>25</v>
+      </c>
+      <c r="D671">
+        <v>0</v>
+      </c>
+      <c r="E671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>401</v>
+      </c>
+      <c r="B672" t="s">
+        <v>408</v>
+      </c>
+      <c r="C672" t="s">
+        <v>7</v>
+      </c>
+      <c r="D672">
+        <v>0</v>
+      </c>
+      <c r="E672">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>401</v>
+      </c>
+      <c r="B673" t="s">
+        <v>408</v>
+      </c>
+      <c r="C673" t="s">
+        <v>403</v>
+      </c>
+      <c r="D673">
+        <v>0</v>
+      </c>
+      <c r="E673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>401</v>
+      </c>
+      <c r="B674" t="s">
+        <v>408</v>
+      </c>
+      <c r="C674" t="s">
+        <v>25</v>
+      </c>
+      <c r="D674">
+        <v>0</v>
+      </c>
+      <c r="E674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>401</v>
+      </c>
+      <c r="B675" t="s">
+        <v>408</v>
+      </c>
+      <c r="C675" t="s">
+        <v>71</v>
+      </c>
+      <c r="D675">
+        <v>0</v>
+      </c>
+      <c r="E675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>401</v>
+      </c>
+      <c r="B676" t="s">
+        <v>408</v>
+      </c>
+      <c r="C676" t="s">
+        <v>41</v>
+      </c>
+      <c r="D676">
+        <v>0</v>
+      </c>
+      <c r="E676">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>401</v>
+      </c>
+      <c r="B677" t="s">
+        <v>409</v>
+      </c>
+      <c r="C677" t="s">
+        <v>7</v>
+      </c>
+      <c r="D677">
+        <v>0</v>
+      </c>
+      <c r="E677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>401</v>
+      </c>
+      <c r="B678" t="s">
+        <v>409</v>
+      </c>
+      <c r="C678" t="s">
+        <v>403</v>
+      </c>
+      <c r="D678">
+        <v>0</v>
+      </c>
+      <c r="E678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>401</v>
+      </c>
+      <c r="B679" t="s">
+        <v>409</v>
+      </c>
+      <c r="C679" t="s">
+        <v>25</v>
+      </c>
+      <c r="D679">
+        <v>0</v>
+      </c>
+      <c r="E679">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>401</v>
+      </c>
+      <c r="B680" t="s">
+        <v>409</v>
+      </c>
+      <c r="C680" t="s">
+        <v>71</v>
+      </c>
+      <c r="D680">
+        <v>0</v>
+      </c>
+      <c r="E680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>401</v>
+      </c>
+      <c r="B681" t="s">
+        <v>409</v>
+      </c>
+      <c r="C681" t="s">
+        <v>41</v>
+      </c>
+      <c r="D681">
+        <v>0</v>
+      </c>
+      <c r="E681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>410</v>
+      </c>
+      <c r="B682" t="s">
+        <v>411</v>
+      </c>
+      <c r="C682" t="s">
+        <v>412</v>
+      </c>
+      <c r="D682">
+        <v>0</v>
+      </c>
+      <c r="E682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>410</v>
+      </c>
+      <c r="B683" t="s">
+        <v>413</v>
+      </c>
+      <c r="C683" t="s">
+        <v>412</v>
+      </c>
+      <c r="D683">
+        <v>0</v>
+      </c>
+      <c r="E683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>410</v>
+      </c>
+      <c r="B684" t="s">
+        <v>414</v>
+      </c>
+      <c r="C684" t="s">
+        <v>412</v>
+      </c>
+      <c r="D684">
+        <v>0</v>
+      </c>
+      <c r="E684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>410</v>
+      </c>
+      <c r="B685" t="s">
+        <v>415</v>
+      </c>
+      <c r="C685" t="s">
+        <v>41</v>
+      </c>
+      <c r="D685">
+        <v>0</v>
+      </c>
+      <c r="E685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>410</v>
+      </c>
+      <c r="B686" t="s">
+        <v>416</v>
+      </c>
+      <c r="C686" t="s">
+        <v>84</v>
+      </c>
+      <c r="D686">
+        <v>0</v>
+      </c>
+      <c r="E686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>410</v>
+      </c>
+      <c r="B687" t="s">
+        <v>417</v>
+      </c>
+      <c r="C687" t="s">
+        <v>71</v>
+      </c>
+      <c r="D687">
+        <v>0</v>
+      </c>
+      <c r="E687">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>410</v>
+      </c>
+      <c r="B688" t="s">
+        <v>418</v>
+      </c>
+      <c r="C688" t="s">
+        <v>309</v>
+      </c>
+      <c r="D688">
+        <v>0</v>
+      </c>
+      <c r="E688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>410</v>
+      </c>
+      <c r="B689" t="s">
+        <v>419</v>
+      </c>
+      <c r="C689" t="s">
+        <v>7</v>
+      </c>
+      <c r="D689">
+        <v>0</v>
+      </c>
+      <c r="E689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>410</v>
+      </c>
+      <c r="B690" t="s">
+        <v>419</v>
+      </c>
+      <c r="C690" t="s">
+        <v>99</v>
+      </c>
+      <c r="D690">
+        <v>0</v>
+      </c>
+      <c r="E690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>410</v>
+      </c>
+      <c r="B691" t="s">
+        <v>420</v>
+      </c>
+      <c r="C691" t="s">
+        <v>9</v>
+      </c>
+      <c r="D691">
+        <v>0</v>
+      </c>
+      <c r="E691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>410</v>
+      </c>
+      <c r="B692" t="s">
+        <v>421</v>
+      </c>
+      <c r="C692" t="s">
+        <v>71</v>
+      </c>
+      <c r="D692">
+        <v>0</v>
+      </c>
+      <c r="E692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>410</v>
+      </c>
+      <c r="B693" t="s">
+        <v>422</v>
+      </c>
+      <c r="C693" t="s">
+        <v>7</v>
+      </c>
+      <c r="D693">
+        <v>0</v>
+      </c>
+      <c r="E693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>410</v>
+      </c>
+      <c r="B694" t="s">
+        <v>423</v>
+      </c>
+      <c r="C694" t="s">
+        <v>7</v>
+      </c>
+      <c r="D694">
+        <v>0</v>
+      </c>
+      <c r="E694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>410</v>
+      </c>
+      <c r="B695" t="s">
+        <v>423</v>
+      </c>
+      <c r="C695" t="s">
+        <v>424</v>
+      </c>
+      <c r="D695">
+        <v>0</v>
+      </c>
+      <c r="E695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>410</v>
+      </c>
+      <c r="B696" t="s">
+        <v>425</v>
+      </c>
+      <c r="C696" t="s">
+        <v>424</v>
+      </c>
+      <c r="D696">
+        <v>0</v>
+      </c>
+      <c r="E696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>410</v>
+      </c>
+      <c r="B697" t="s">
+        <v>426</v>
+      </c>
+      <c r="C697" t="s">
+        <v>9</v>
+      </c>
+      <c r="D697">
+        <v>0</v>
+      </c>
+      <c r="E697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>410</v>
+      </c>
+      <c r="B698" t="s">
+        <v>427</v>
+      </c>
+      <c r="C698" t="s">
+        <v>71</v>
+      </c>
+      <c r="D698">
+        <v>0</v>
+      </c>
+      <c r="E698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>410</v>
+      </c>
+      <c r="B699" t="s">
+        <v>428</v>
+      </c>
+      <c r="C699" t="s">
+        <v>7</v>
+      </c>
+      <c r="D699">
+        <v>0</v>
+      </c>
+      <c r="E699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>410</v>
+      </c>
+      <c r="B700" t="s">
+        <v>429</v>
+      </c>
+      <c r="C700" t="s">
+        <v>7</v>
+      </c>
+      <c r="D700">
+        <v>0</v>
+      </c>
+      <c r="E700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>410</v>
+      </c>
+      <c r="B701" t="s">
+        <v>430</v>
+      </c>
+      <c r="C701" t="s">
+        <v>424</v>
+      </c>
+      <c r="D701">
+        <v>0</v>
+      </c>
+      <c r="E701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>410</v>
+      </c>
+      <c r="B702" t="s">
+        <v>431</v>
+      </c>
+      <c r="C702" t="s">
+        <v>9</v>
+      </c>
+      <c r="D702">
+        <v>0</v>
+      </c>
+      <c r="E702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>410</v>
+      </c>
+      <c r="B703" t="s">
+        <v>431</v>
+      </c>
+      <c r="C703" t="s">
+        <v>7</v>
+      </c>
+      <c r="D703">
+        <v>0</v>
+      </c>
+      <c r="E703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>410</v>
+      </c>
+      <c r="B704" t="s">
+        <v>432</v>
+      </c>
+      <c r="C704" t="s">
+        <v>99</v>
+      </c>
+      <c r="D704">
+        <v>0</v>
+      </c>
+      <c r="E704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>410</v>
+      </c>
+      <c r="B705" t="s">
+        <v>433</v>
+      </c>
+      <c r="C705" t="s">
+        <v>99</v>
+      </c>
+      <c r="D705">
+        <v>0</v>
+      </c>
+      <c r="E705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>410</v>
+      </c>
+      <c r="B706" t="s">
+        <v>434</v>
+      </c>
+      <c r="C706" t="s">
+        <v>9</v>
+      </c>
+      <c r="D706">
+        <v>0</v>
+      </c>
+      <c r="E706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>410</v>
+      </c>
+      <c r="B707" t="s">
+        <v>434</v>
+      </c>
+      <c r="C707" t="s">
+        <v>71</v>
+      </c>
+      <c r="D707">
+        <v>0</v>
+      </c>
+      <c r="E707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>410</v>
+      </c>
+      <c r="B708" t="s">
+        <v>435</v>
+      </c>
+      <c r="C708" t="s">
+        <v>99</v>
+      </c>
+      <c r="D708">
+        <v>0</v>
+      </c>
+      <c r="E708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>410</v>
+      </c>
+      <c r="B709" t="s">
+        <v>436</v>
+      </c>
+      <c r="C709" t="s">
+        <v>7</v>
+      </c>
+      <c r="D709">
+        <v>0</v>
+      </c>
+      <c r="E709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>410</v>
+      </c>
+      <c r="B710" t="s">
+        <v>436</v>
+      </c>
+      <c r="C710" t="s">
+        <v>71</v>
+      </c>
+      <c r="D710">
+        <v>0</v>
+      </c>
+      <c r="E710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>437</v>
+      </c>
+      <c r="B711" t="s">
+        <v>404</v>
+      </c>
+      <c r="C711" t="s">
+        <v>7</v>
+      </c>
+      <c r="D711">
+        <v>0</v>
+      </c>
+      <c r="E711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>437</v>
+      </c>
+      <c r="B712" t="s">
+        <v>404</v>
+      </c>
+      <c r="C712" t="s">
+        <v>25</v>
+      </c>
+      <c r="D712">
+        <v>0</v>
+      </c>
+      <c r="E712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>437</v>
+      </c>
+      <c r="B713" t="s">
+        <v>404</v>
+      </c>
+      <c r="C713" t="s">
+        <v>9</v>
+      </c>
+      <c r="D713">
+        <v>0</v>
+      </c>
+      <c r="E713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>437</v>
+      </c>
+      <c r="B714" t="s">
+        <v>438</v>
+      </c>
+      <c r="C714" t="s">
+        <v>7</v>
+      </c>
+      <c r="D714">
+        <v>0</v>
+      </c>
+      <c r="E714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>437</v>
+      </c>
+      <c r="B715" t="s">
+        <v>438</v>
+      </c>
+      <c r="C715" t="s">
+        <v>25</v>
+      </c>
+      <c r="D715">
+        <v>0</v>
+      </c>
+      <c r="E715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>437</v>
+      </c>
+      <c r="B716" t="s">
+        <v>438</v>
+      </c>
+      <c r="C716" t="s">
+        <v>9</v>
+      </c>
+      <c r="D716">
+        <v>0</v>
+      </c>
+      <c r="E716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>437</v>
+      </c>
+      <c r="B717" t="s">
+        <v>438</v>
+      </c>
+      <c r="C717" t="s">
+        <v>41</v>
+      </c>
+      <c r="D717">
+        <v>0</v>
+      </c>
+      <c r="E717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>437</v>
+      </c>
+      <c r="B718" t="s">
+        <v>439</v>
+      </c>
+      <c r="C718" t="s">
+        <v>7</v>
+      </c>
+      <c r="D718">
+        <v>0</v>
+      </c>
+      <c r="E718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>437</v>
+      </c>
+      <c r="B719" t="s">
+        <v>439</v>
+      </c>
+      <c r="C719" t="s">
+        <v>7</v>
+      </c>
+      <c r="D719">
+        <v>0</v>
+      </c>
+      <c r="E719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>437</v>
+      </c>
+      <c r="B720" t="s">
+        <v>439</v>
+      </c>
+      <c r="C720" t="s">
+        <v>25</v>
+      </c>
+      <c r="D720">
+        <v>0</v>
+      </c>
+      <c r="E720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>437</v>
+      </c>
+      <c r="B721" t="s">
+        <v>439</v>
+      </c>
+      <c r="C721" t="s">
+        <v>9</v>
+      </c>
+      <c r="D721">
+        <v>0</v>
+      </c>
+      <c r="E721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>440</v>
+      </c>
+      <c r="B722" t="s">
+        <v>441</v>
+      </c>
+      <c r="C722" t="s">
+        <v>7</v>
+      </c>
+      <c r="D722">
+        <v>0</v>
+      </c>
+      <c r="E722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>440</v>
+      </c>
+      <c r="B723" t="s">
+        <v>441</v>
+      </c>
+      <c r="C723" t="s">
+        <v>25</v>
+      </c>
+      <c r="D723">
+        <v>0</v>
+      </c>
+      <c r="E723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>440</v>
+      </c>
+      <c r="B724" t="s">
+        <v>441</v>
+      </c>
+      <c r="C724" t="s">
+        <v>99</v>
+      </c>
+      <c r="D724">
+        <v>1</v>
+      </c>
+      <c r="E724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>440</v>
+      </c>
+      <c r="B725" t="s">
+        <v>441</v>
+      </c>
+      <c r="C725" t="s">
+        <v>41</v>
+      </c>
+      <c r="D725">
+        <v>0</v>
+      </c>
+      <c r="E725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>440</v>
+      </c>
+      <c r="B726" t="s">
+        <v>441</v>
+      </c>
+      <c r="C726" t="s">
+        <v>9</v>
+      </c>
+      <c r="D726">
+        <v>0</v>
+      </c>
+      <c r="E726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>440</v>
+      </c>
+      <c r="B727" t="s">
+        <v>441</v>
+      </c>
+      <c r="C727" t="s">
+        <v>71</v>
+      </c>
+      <c r="D727">
+        <v>0</v>
+      </c>
+      <c r="E727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>440</v>
+      </c>
+      <c r="B728" t="s">
+        <v>442</v>
+      </c>
+      <c r="C728" t="s">
+        <v>7</v>
+      </c>
+      <c r="D728">
+        <v>0</v>
+      </c>
+      <c r="E728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>440</v>
+      </c>
+      <c r="B729" t="s">
+        <v>442</v>
+      </c>
+      <c r="C729" t="s">
+        <v>25</v>
+      </c>
+      <c r="D729">
+        <v>0</v>
+      </c>
+      <c r="E729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>440</v>
+      </c>
+      <c r="B730" t="s">
+        <v>442</v>
+      </c>
+      <c r="C730" t="s">
+        <v>41</v>
+      </c>
+      <c r="D730">
+        <v>0</v>
+      </c>
+      <c r="E730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>440</v>
+      </c>
+      <c r="B731" t="s">
+        <v>442</v>
+      </c>
+      <c r="C731" t="s">
+        <v>9</v>
+      </c>
+      <c r="D731">
+        <v>0</v>
+      </c>
+      <c r="E731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>440</v>
+      </c>
+      <c r="B732" t="s">
+        <v>442</v>
+      </c>
+      <c r="C732" t="s">
+        <v>71</v>
+      </c>
+      <c r="D732">
+        <v>0</v>
+      </c>
+      <c r="E732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>440</v>
+      </c>
+      <c r="B733" t="s">
+        <v>443</v>
+      </c>
+      <c r="C733" t="s">
+        <v>7</v>
+      </c>
+      <c r="D733">
+        <v>0</v>
+      </c>
+      <c r="E733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>440</v>
+      </c>
+      <c r="B734" t="s">
+        <v>443</v>
+      </c>
+      <c r="C734" t="s">
+        <v>25</v>
+      </c>
+      <c r="D734">
+        <v>0</v>
+      </c>
+      <c r="E734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>440</v>
+      </c>
+      <c r="B735" t="s">
+        <v>443</v>
+      </c>
+      <c r="C735" t="s">
+        <v>99</v>
+      </c>
+      <c r="D735">
+        <v>1</v>
+      </c>
+      <c r="E735">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>440</v>
+      </c>
+      <c r="B736" t="s">
+        <v>443</v>
+      </c>
+      <c r="C736" t="s">
+        <v>41</v>
+      </c>
+      <c r="D736">
+        <v>0</v>
+      </c>
+      <c r="E736">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>440</v>
+      </c>
+      <c r="B737" t="s">
+        <v>443</v>
+      </c>
+      <c r="C737" t="s">
+        <v>9</v>
+      </c>
+      <c r="D737">
+        <v>0</v>
+      </c>
+      <c r="E737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>440</v>
+      </c>
+      <c r="B738" t="s">
+        <v>443</v>
+      </c>
+      <c r="C738" t="s">
+        <v>71</v>
+      </c>
+      <c r="D738">
+        <v>0</v>
+      </c>
+      <c r="E738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>440</v>
+      </c>
+      <c r="B739" t="s">
+        <v>444</v>
+      </c>
+      <c r="C739" t="s">
+        <v>7</v>
+      </c>
+      <c r="D739">
+        <v>0</v>
+      </c>
+      <c r="E739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>440</v>
+      </c>
+      <c r="B740" t="s">
+        <v>444</v>
+      </c>
+      <c r="C740" t="s">
+        <v>25</v>
+      </c>
+      <c r="D740">
+        <v>0</v>
+      </c>
+      <c r="E740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>440</v>
+      </c>
+      <c r="B741" t="s">
+        <v>444</v>
+      </c>
+      <c r="C741" t="s">
+        <v>41</v>
+      </c>
+      <c r="D741">
+        <v>0</v>
+      </c>
+      <c r="E741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>440</v>
+      </c>
+      <c r="B742" t="s">
+        <v>444</v>
+      </c>
+      <c r="C742" t="s">
+        <v>9</v>
+      </c>
+      <c r="D742">
+        <v>0</v>
+      </c>
+      <c r="E742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>440</v>
+      </c>
+      <c r="B743" t="s">
+        <v>445</v>
+      </c>
+      <c r="C743" t="s">
+        <v>71</v>
+      </c>
+      <c r="D743">
+        <v>0</v>
+      </c>
+      <c r="E743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>446</v>
+      </c>
+      <c r="B744" t="s">
+        <v>447</v>
+      </c>
+      <c r="C744" t="s">
+        <v>448</v>
+      </c>
+      <c r="D744">
+        <v>0</v>
+      </c>
+      <c r="E744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>446</v>
+      </c>
+      <c r="B745" t="s">
+        <v>447</v>
+      </c>
+      <c r="C745" t="s">
+        <v>25</v>
+      </c>
+      <c r="D745">
+        <v>0</v>
+      </c>
+      <c r="E745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>446</v>
+      </c>
+      <c r="B746" t="s">
+        <v>447</v>
+      </c>
+      <c r="C746" t="s">
+        <v>9</v>
+      </c>
+      <c r="D746">
+        <v>0</v>
+      </c>
+      <c r="E746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>446</v>
+      </c>
+      <c r="B747" t="s">
+        <v>449</v>
+      </c>
+      <c r="C747" t="s">
+        <v>448</v>
+      </c>
+      <c r="D747">
+        <v>0</v>
+      </c>
+      <c r="E747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>446</v>
+      </c>
+      <c r="B748" t="s">
+        <v>449</v>
+      </c>
+      <c r="C748" t="s">
+        <v>25</v>
+      </c>
+      <c r="D748">
+        <v>0</v>
+      </c>
+      <c r="E748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>446</v>
+      </c>
+      <c r="B749" t="s">
+        <v>449</v>
+      </c>
+      <c r="C749" t="s">
+        <v>9</v>
+      </c>
+      <c r="D749">
+        <v>0</v>
+      </c>
+      <c r="E749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>446</v>
+      </c>
+      <c r="B750" t="s">
+        <v>450</v>
+      </c>
+      <c r="C750" t="s">
+        <v>448</v>
+      </c>
+      <c r="D750">
+        <v>0</v>
+      </c>
+      <c r="E750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>446</v>
+      </c>
+      <c r="B751" t="s">
+        <v>450</v>
+      </c>
+      <c r="C751" t="s">
+        <v>25</v>
+      </c>
+      <c r="D751">
+        <v>0</v>
+      </c>
+      <c r="E751">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>446</v>
+      </c>
+      <c r="B752" t="s">
+        <v>450</v>
+      </c>
+      <c r="C752" t="s">
+        <v>9</v>
+      </c>
+      <c r="D752">
+        <v>0</v>
+      </c>
+      <c r="E752">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>446</v>
+      </c>
+      <c r="B753" t="s">
+        <v>450</v>
+      </c>
+      <c r="C753" t="s">
+        <v>41</v>
+      </c>
+      <c r="D753">
+        <v>0</v>
+      </c>
+      <c r="E753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>446</v>
+      </c>
+      <c r="B754" t="s">
+        <v>451</v>
+      </c>
+      <c r="C754" t="s">
+        <v>448</v>
+      </c>
+      <c r="D754">
+        <v>0</v>
+      </c>
+      <c r="E754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>446</v>
+      </c>
+      <c r="B755" t="s">
+        <v>451</v>
+      </c>
+      <c r="C755" t="s">
+        <v>448</v>
+      </c>
+      <c r="D755">
+        <v>0</v>
+      </c>
+      <c r="E755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>446</v>
+      </c>
+      <c r="B756" t="s">
+        <v>451</v>
+      </c>
+      <c r="C756" t="s">
+        <v>25</v>
+      </c>
+      <c r="D756">
+        <v>0</v>
+      </c>
+      <c r="E756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>446</v>
+      </c>
+      <c r="B757" t="s">
+        <v>451</v>
+      </c>
+      <c r="C757" t="s">
+        <v>9</v>
+      </c>
+      <c r="D757">
+        <v>0</v>
+      </c>
+      <c r="E757">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>446</v>
+      </c>
+      <c r="B758" t="s">
+        <v>452</v>
+      </c>
+      <c r="C758" t="s">
+        <v>448</v>
+      </c>
+      <c r="D758">
+        <v>0</v>
+      </c>
+      <c r="E758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>446</v>
+      </c>
+      <c r="B759" t="s">
+        <v>452</v>
+      </c>
+      <c r="C759" t="s">
+        <v>25</v>
+      </c>
+      <c r="D759">
+        <v>0</v>
+      </c>
+      <c r="E759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>446</v>
+      </c>
+      <c r="B760" t="s">
+        <v>452</v>
+      </c>
+      <c r="C760" t="s">
+        <v>9</v>
+      </c>
+      <c r="D760">
+        <v>0</v>
+      </c>
+      <c r="E760">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>446</v>
+      </c>
+      <c r="B761" t="s">
+        <v>452</v>
+      </c>
+      <c r="C761" t="s">
+        <v>453</v>
+      </c>
+      <c r="D761">
+        <v>0</v>
+      </c>
+      <c r="E761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>454</v>
+      </c>
+      <c r="B762" t="s">
+        <v>455</v>
+      </c>
+      <c r="C762" t="s">
+        <v>99</v>
+      </c>
+      <c r="D762">
+        <v>0</v>
+      </c>
+      <c r="E762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>454</v>
+      </c>
+      <c r="B763" t="s">
+        <v>455</v>
+      </c>
+      <c r="C763" t="s">
+        <v>9</v>
+      </c>
+      <c r="D763">
+        <v>0</v>
+      </c>
+      <c r="E763">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>454</v>
+      </c>
+      <c r="B764" t="s">
+        <v>455</v>
+      </c>
+      <c r="C764" t="s">
+        <v>453</v>
+      </c>
+      <c r="D764">
+        <v>0</v>
+      </c>
+      <c r="E764">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>454</v>
+      </c>
+      <c r="B765" t="s">
+        <v>456</v>
+      </c>
+      <c r="C765" t="s">
+        <v>99</v>
+      </c>
+      <c r="D765">
+        <v>1</v>
+      </c>
+      <c r="E765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>454</v>
+      </c>
+      <c r="B766" t="s">
+        <v>456</v>
+      </c>
+      <c r="C766" t="s">
+        <v>9</v>
+      </c>
+      <c r="D766">
+        <v>0</v>
+      </c>
+      <c r="E766">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>454</v>
+      </c>
+      <c r="B767" t="s">
+        <v>456</v>
+      </c>
+      <c r="C767" t="s">
+        <v>453</v>
+      </c>
+      <c r="D767">
+        <v>0</v>
+      </c>
+      <c r="E767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>454</v>
+      </c>
+      <c r="B768" t="s">
+        <v>457</v>
+      </c>
+      <c r="C768" t="s">
+        <v>99</v>
+      </c>
+      <c r="D768">
+        <v>1</v>
+      </c>
+      <c r="E768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>454</v>
+      </c>
+      <c r="B769" t="s">
+        <v>457</v>
+      </c>
+      <c r="C769" t="s">
+        <v>9</v>
+      </c>
+      <c r="D769">
+        <v>0</v>
+      </c>
+      <c r="E769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>454</v>
+      </c>
+      <c r="B770" t="s">
+        <v>457</v>
+      </c>
+      <c r="C770" t="s">
+        <v>453</v>
+      </c>
+      <c r="D770">
+        <v>0</v>
+      </c>
+      <c r="E770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>454</v>
+      </c>
+      <c r="B771" t="s">
+        <v>457</v>
+      </c>
+      <c r="C771" t="s">
+        <v>84</v>
+      </c>
+      <c r="D771">
+        <v>0</v>
+      </c>
+      <c r="E771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>458</v>
+      </c>
+      <c r="B772" t="s">
+        <v>459</v>
+      </c>
+      <c r="C772" t="s">
+        <v>7</v>
+      </c>
+      <c r="D772">
+        <v>0</v>
+      </c>
+      <c r="E772">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>458</v>
+      </c>
+      <c r="B773" t="s">
+        <v>459</v>
+      </c>
+      <c r="C773" t="s">
+        <v>41</v>
+      </c>
+      <c r="D773">
+        <v>0</v>
+      </c>
+      <c r="E773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>458</v>
+      </c>
+      <c r="B774" t="s">
+        <v>459</v>
+      </c>
+      <c r="C774" t="s">
+        <v>9</v>
+      </c>
+      <c r="D774">
+        <v>0</v>
+      </c>
+      <c r="E774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>458</v>
+      </c>
+      <c r="B775" t="s">
+        <v>459</v>
+      </c>
+      <c r="C775" t="s">
+        <v>453</v>
+      </c>
+      <c r="D775">
+        <v>0</v>
+      </c>
+      <c r="E775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>458</v>
+      </c>
+      <c r="B776" t="s">
+        <v>460</v>
+      </c>
+      <c r="C776" t="s">
+        <v>7</v>
+      </c>
+      <c r="D776">
+        <v>0</v>
+      </c>
+      <c r="E776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>458</v>
+      </c>
+      <c r="B777" t="s">
+        <v>460</v>
+      </c>
+      <c r="C777" t="s">
+        <v>7</v>
+      </c>
+      <c r="D777">
+        <v>0</v>
+      </c>
+      <c r="E777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>458</v>
+      </c>
+      <c r="B778" t="s">
+        <v>460</v>
+      </c>
+      <c r="C778" t="s">
+        <v>7</v>
+      </c>
+      <c r="D778">
+        <v>0</v>
+      </c>
+      <c r="E778">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>458</v>
+      </c>
+      <c r="B779" t="s">
+        <v>460</v>
+      </c>
+      <c r="C779" t="s">
+        <v>41</v>
+      </c>
+      <c r="D779">
+        <v>0</v>
+      </c>
+      <c r="E779">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>458</v>
+      </c>
+      <c r="B780" t="s">
+        <v>460</v>
+      </c>
+      <c r="C780" t="s">
+        <v>25</v>
+      </c>
+      <c r="D780">
+        <v>1</v>
+      </c>
+      <c r="E780">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>458</v>
+      </c>
+      <c r="B781" t="s">
+        <v>460</v>
+      </c>
+      <c r="C781" t="s">
+        <v>76</v>
+      </c>
+      <c r="D781">
+        <v>0</v>
+      </c>
+      <c r="E781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>458</v>
+      </c>
+      <c r="B782" t="s">
+        <v>460</v>
+      </c>
+      <c r="C782" t="s">
+        <v>99</v>
+      </c>
+      <c r="D782">
+        <v>0</v>
+      </c>
+      <c r="E782">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>461</v>
+      </c>
+      <c r="B783" t="s">
+        <v>462</v>
+      </c>
+      <c r="C783" t="s">
+        <v>7</v>
+      </c>
+      <c r="D783">
+        <v>0</v>
+      </c>
+      <c r="E783">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>461</v>
+      </c>
+      <c r="B784" t="s">
+        <v>462</v>
+      </c>
+      <c r="C784" t="s">
+        <v>25</v>
+      </c>
+      <c r="D784">
+        <v>0</v>
+      </c>
+      <c r="E784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>461</v>
+      </c>
+      <c r="B785" t="s">
+        <v>462</v>
+      </c>
+      <c r="C785" t="s">
+        <v>9</v>
+      </c>
+      <c r="D785">
+        <v>0</v>
+      </c>
+      <c r="E785">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>461</v>
+      </c>
+      <c r="B786" t="s">
+        <v>463</v>
+      </c>
+      <c r="C786" t="s">
+        <v>7</v>
+      </c>
+      <c r="D786">
+        <v>0</v>
+      </c>
+      <c r="E786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>461</v>
+      </c>
+      <c r="B787" t="s">
+        <v>463</v>
+      </c>
+      <c r="C787" t="s">
+        <v>464</v>
+      </c>
+      <c r="D787">
+        <v>0</v>
+      </c>
+      <c r="E787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>461</v>
+      </c>
+      <c r="B788" t="s">
+        <v>463</v>
+      </c>
+      <c r="C788" t="s">
+        <v>465</v>
+      </c>
+      <c r="D788">
+        <v>0</v>
+      </c>
+      <c r="E788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>466</v>
+      </c>
+      <c r="B789" t="s">
+        <v>467</v>
+      </c>
+      <c r="C789" t="s">
+        <v>7</v>
+      </c>
+      <c r="D789">
+        <v>0</v>
+      </c>
+      <c r="E789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>466</v>
+      </c>
+      <c r="B790" t="s">
+        <v>467</v>
+      </c>
+      <c r="C790" t="s">
+        <v>25</v>
+      </c>
+      <c r="D790">
+        <v>0</v>
+      </c>
+      <c r="E790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>466</v>
+      </c>
+      <c r="B791" t="s">
+        <v>468</v>
+      </c>
+      <c r="C791" t="s">
+        <v>7</v>
+      </c>
+      <c r="D791">
+        <v>0</v>
+      </c>
+      <c r="E791">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>466</v>
+      </c>
+      <c r="B792" t="s">
+        <v>468</v>
+      </c>
+      <c r="C792" t="s">
+        <v>25</v>
+      </c>
+      <c r="D792">
+        <v>0</v>
+      </c>
+      <c r="E792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>466</v>
+      </c>
+      <c r="B793" t="s">
+        <v>469</v>
+      </c>
+      <c r="C793" t="s">
+        <v>7</v>
+      </c>
+      <c r="D793">
+        <v>0</v>
+      </c>
+      <c r="E793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>466</v>
+      </c>
+      <c r="B794" t="s">
+        <v>469</v>
+      </c>
+      <c r="C794" t="s">
+        <v>25</v>
+      </c>
+      <c r="D794">
+        <v>0</v>
+      </c>
+      <c r="E794">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>470</v>
+      </c>
+      <c r="B795" t="s">
+        <v>471</v>
+      </c>
+      <c r="C795" t="s">
+        <v>7</v>
+      </c>
+      <c r="D795">
+        <v>0</v>
+      </c>
+      <c r="E795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>470</v>
+      </c>
+      <c r="B796" t="s">
+        <v>471</v>
+      </c>
+      <c r="C796" t="s">
+        <v>41</v>
+      </c>
+      <c r="D796">
+        <v>0</v>
+      </c>
+      <c r="E796">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>470</v>
+      </c>
+      <c r="B797" t="s">
+        <v>471</v>
+      </c>
+      <c r="C797" t="s">
+        <v>403</v>
+      </c>
+      <c r="D797">
+        <v>0</v>
+      </c>
+      <c r="E797">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>470</v>
+      </c>
+      <c r="B798" t="s">
+        <v>471</v>
+      </c>
+      <c r="C798" t="s">
+        <v>453</v>
+      </c>
+      <c r="D798">
+        <v>0</v>
+      </c>
+      <c r="E798">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>470</v>
+      </c>
+      <c r="B799" t="s">
+        <v>472</v>
+      </c>
+      <c r="C799" t="s">
+        <v>7</v>
+      </c>
+      <c r="D799">
+        <v>0</v>
+      </c>
+      <c r="E799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>470</v>
+      </c>
+      <c r="B800" t="s">
+        <v>472</v>
+      </c>
+      <c r="C800" t="s">
+        <v>41</v>
+      </c>
+      <c r="D800">
+        <v>0</v>
+      </c>
+      <c r="E800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>470</v>
+      </c>
+      <c r="B801" t="s">
+        <v>472</v>
+      </c>
+      <c r="C801" t="s">
+        <v>403</v>
+      </c>
+      <c r="D801">
+        <v>0</v>
+      </c>
+      <c r="E801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>470</v>
+      </c>
+      <c r="B802" t="s">
+        <v>472</v>
+      </c>
+      <c r="C802" t="s">
+        <v>453</v>
+      </c>
+      <c r="D802">
+        <v>0</v>
+      </c>
+      <c r="E802">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>470</v>
+      </c>
+      <c r="B803" t="s">
+        <v>472</v>
+      </c>
+      <c r="C803" t="s">
+        <v>25</v>
+      </c>
+      <c r="D803">
+        <v>0</v>
+      </c>
+      <c r="E803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>470</v>
+      </c>
+      <c r="B804" t="s">
+        <v>472</v>
+      </c>
+      <c r="C804" t="s">
+        <v>99</v>
+      </c>
+      <c r="D804">
+        <v>1</v>
+      </c>
+      <c r="E804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>473</v>
+      </c>
+      <c r="B805" t="s">
+        <v>474</v>
+      </c>
+      <c r="C805" t="s">
+        <v>475</v>
+      </c>
+      <c r="D805">
+        <v>0</v>
+      </c>
+      <c r="E805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>473</v>
+      </c>
+      <c r="B806" t="s">
+        <v>474</v>
+      </c>
+      <c r="C806" t="s">
+        <v>25</v>
+      </c>
+      <c r="D806">
+        <v>0</v>
+      </c>
+      <c r="E806">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>473</v>
+      </c>
+      <c r="B807" t="s">
+        <v>474</v>
+      </c>
+      <c r="C807" t="s">
+        <v>9</v>
+      </c>
+      <c r="D807">
+        <v>0</v>
+      </c>
+      <c r="E807">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>473</v>
+      </c>
+      <c r="B808" t="s">
+        <v>476</v>
+      </c>
+      <c r="C808" t="s">
+        <v>9</v>
+      </c>
+      <c r="D808">
+        <v>0</v>
+      </c>
+      <c r="E808">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>473</v>
+      </c>
+      <c r="B809" t="s">
+        <v>476</v>
+      </c>
+      <c r="C809" t="s">
+        <v>25</v>
+      </c>
+      <c r="D809">
+        <v>0</v>
+      </c>
+      <c r="E809">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>473</v>
+      </c>
+      <c r="B810" t="s">
+        <v>477</v>
+      </c>
+      <c r="C810" t="s">
+        <v>475</v>
+      </c>
+      <c r="D810">
+        <v>0</v>
+      </c>
+      <c r="E810">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>473</v>
+      </c>
+      <c r="B811" t="s">
+        <v>477</v>
+      </c>
+      <c r="C811" t="s">
+        <v>25</v>
+      </c>
+      <c r="D811">
+        <v>0</v>
+      </c>
+      <c r="E811">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>473</v>
+      </c>
+      <c r="B812" t="s">
+        <v>477</v>
+      </c>
+      <c r="C812" t="s">
+        <v>9</v>
+      </c>
+      <c r="D812">
+        <v>0</v>
+      </c>
+      <c r="E812">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>473</v>
+      </c>
+      <c r="B813" t="s">
+        <v>477</v>
+      </c>
+      <c r="C813" t="s">
+        <v>99</v>
+      </c>
+      <c r="D813">
+        <v>1</v>
+      </c>
+      <c r="E813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>473</v>
+      </c>
+      <c r="B814" t="s">
+        <v>478</v>
+      </c>
+      <c r="C814" t="s">
+        <v>25</v>
+      </c>
+      <c r="D814">
+        <v>0</v>
+      </c>
+      <c r="E814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>473</v>
+      </c>
+      <c r="B815" t="s">
+        <v>478</v>
+      </c>
+      <c r="C815" t="s">
+        <v>9</v>
+      </c>
+      <c r="D815">
+        <v>0</v>
+      </c>
+      <c r="E815">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>473</v>
+      </c>
+      <c r="B816" t="s">
+        <v>479</v>
+      </c>
+      <c r="C816" t="s">
+        <v>71</v>
+      </c>
+      <c r="D816">
+        <v>0</v>
+      </c>
+      <c r="E816">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>473</v>
+      </c>
+      <c r="B817" t="s">
+        <v>479</v>
+      </c>
+      <c r="C817" t="s">
+        <v>41</v>
+      </c>
+      <c r="D817">
+        <v>0</v>
+      </c>
+      <c r="E817">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>473</v>
+      </c>
+      <c r="B818" t="s">
+        <v>480</v>
+      </c>
+      <c r="C818" t="s">
+        <v>475</v>
+      </c>
+      <c r="D818">
+        <v>0</v>
+      </c>
+      <c r="E818">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>473</v>
+      </c>
+      <c r="B819" t="s">
+        <v>480</v>
+      </c>
+      <c r="C819" t="s">
+        <v>7</v>
+      </c>
+      <c r="D819">
+        <v>0</v>
+      </c>
+      <c r="E819">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>473</v>
+      </c>
+      <c r="B820" t="s">
+        <v>480</v>
+      </c>
+      <c r="C820" t="s">
+        <v>7</v>
+      </c>
+      <c r="D820">
+        <v>0</v>
+      </c>
+      <c r="E820">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>473</v>
+      </c>
+      <c r="B821" t="s">
+        <v>481</v>
+      </c>
+      <c r="C821" t="s">
+        <v>7</v>
+      </c>
+      <c r="D821">
+        <v>0</v>
+      </c>
+      <c r="E821">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>473</v>
+      </c>
+      <c r="B822" t="s">
+        <v>482</v>
+      </c>
+      <c r="C822" t="s">
+        <v>475</v>
+      </c>
+      <c r="D822">
+        <v>0</v>
+      </c>
+      <c r="E822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>473</v>
+      </c>
+      <c r="B823" t="s">
+        <v>482</v>
+      </c>
+      <c r="C823" t="s">
+        <v>25</v>
+      </c>
+      <c r="D823">
+        <v>0</v>
+      </c>
+      <c r="E823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>473</v>
+      </c>
+      <c r="B824" t="s">
+        <v>482</v>
+      </c>
+      <c r="C824" t="s">
+        <v>71</v>
+      </c>
+      <c r="D824">
+        <v>0</v>
+      </c>
+      <c r="E824">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>473</v>
+      </c>
+      <c r="B825" t="s">
+        <v>483</v>
+      </c>
+      <c r="C825" t="s">
+        <v>475</v>
+      </c>
+      <c r="D825">
+        <v>0</v>
+      </c>
+      <c r="E825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>473</v>
+      </c>
+      <c r="B826" t="s">
+        <v>483</v>
+      </c>
+      <c r="C826" t="s">
+        <v>25</v>
+      </c>
+      <c r="D826">
+        <v>0</v>
+      </c>
+      <c r="E826">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>473</v>
+      </c>
+      <c r="B827" t="s">
+        <v>483</v>
+      </c>
+      <c r="C827" t="s">
+        <v>71</v>
+      </c>
+      <c r="D827">
+        <v>0</v>
+      </c>
+      <c r="E827">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>473</v>
+      </c>
+      <c r="B828" t="s">
+        <v>483</v>
+      </c>
+      <c r="C828" t="s">
+        <v>99</v>
+      </c>
+      <c r="D828">
+        <v>0</v>
+      </c>
+      <c r="E828">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>473</v>
+      </c>
+      <c r="B829" t="s">
+        <v>483</v>
+      </c>
+      <c r="C829" t="s">
+        <v>9</v>
+      </c>
+      <c r="D829">
+        <v>0</v>
+      </c>
+      <c r="E829">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>473</v>
+      </c>
+      <c r="B830" t="s">
+        <v>484</v>
+      </c>
+      <c r="C830" t="s">
+        <v>99</v>
+      </c>
+      <c r="D830">
+        <v>0</v>
+      </c>
+      <c r="E830">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>473</v>
+      </c>
+      <c r="B831" t="s">
+        <v>485</v>
+      </c>
+      <c r="C831" t="s">
+        <v>9</v>
+      </c>
+      <c r="D831">
+        <v>0</v>
+      </c>
+      <c r="E831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>473</v>
+      </c>
+      <c r="B832" t="s">
+        <v>486</v>
+      </c>
+      <c r="C832" t="s">
+        <v>475</v>
+      </c>
+      <c r="D832">
+        <v>0</v>
+      </c>
+      <c r="E832">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>473</v>
+      </c>
+      <c r="B833" t="s">
+        <v>486</v>
+      </c>
+      <c r="C833" t="s">
+        <v>25</v>
+      </c>
+      <c r="D833">
+        <v>0</v>
+      </c>
+      <c r="E833">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>473</v>
+      </c>
+      <c r="B834" t="s">
+        <v>486</v>
+      </c>
+      <c r="C834" t="s">
+        <v>71</v>
+      </c>
+      <c r="D834">
+        <v>0</v>
+      </c>
+      <c r="E834">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>473</v>
+      </c>
+      <c r="B835" t="s">
+        <v>486</v>
+      </c>
+      <c r="C835" t="s">
+        <v>9</v>
+      </c>
+      <c r="D835">
+        <v>0</v>
+      </c>
+      <c r="E835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>487</v>
+      </c>
+      <c r="B836" t="s">
+        <v>488</v>
+      </c>
+      <c r="C836" t="s">
+        <v>489</v>
+      </c>
+      <c r="D836">
+        <v>0</v>
+      </c>
+      <c r="E836">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>487</v>
+      </c>
+      <c r="B837" t="s">
+        <v>488</v>
+      </c>
+      <c r="C837" t="s">
+        <v>9</v>
+      </c>
+      <c r="D837">
+        <v>0</v>
+      </c>
+      <c r="E837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>487</v>
+      </c>
+      <c r="B838" t="s">
+        <v>488</v>
+      </c>
+      <c r="C838" t="s">
+        <v>71</v>
+      </c>
+      <c r="D838">
+        <v>0</v>
+      </c>
+      <c r="E838">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>487</v>
+      </c>
+      <c r="B839" t="s">
+        <v>490</v>
+      </c>
+      <c r="C839" t="s">
+        <v>489</v>
+      </c>
+      <c r="D839">
+        <v>0</v>
+      </c>
+      <c r="E839">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>487</v>
+      </c>
+      <c r="B840" t="s">
+        <v>490</v>
+      </c>
+      <c r="C840" t="s">
+        <v>9</v>
+      </c>
+      <c r="D840">
+        <v>0</v>
+      </c>
+      <c r="E840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>487</v>
+      </c>
+      <c r="B841" t="s">
+        <v>490</v>
+      </c>
+      <c r="C841" t="s">
+        <v>71</v>
+      </c>
+      <c r="D841">
+        <v>0</v>
+      </c>
+      <c r="E841">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>487</v>
+      </c>
+      <c r="B842" t="s">
+        <v>490</v>
+      </c>
+      <c r="C842" t="s">
+        <v>99</v>
+      </c>
+      <c r="D842">
+        <v>1</v>
+      </c>
+      <c r="E842">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>487</v>
+      </c>
+      <c r="B843" t="s">
+        <v>490</v>
+      </c>
+      <c r="C843" t="s">
+        <v>25</v>
+      </c>
+      <c r="D843">
+        <v>0</v>
+      </c>
+      <c r="E843">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>487</v>
+      </c>
+      <c r="B844" t="s">
+        <v>491</v>
+      </c>
+      <c r="C844" t="s">
+        <v>9</v>
+      </c>
+      <c r="D844">
+        <v>0</v>
+      </c>
+      <c r="E844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>487</v>
+      </c>
+      <c r="B845" t="s">
+        <v>491</v>
+      </c>
+      <c r="C845" t="s">
+        <v>71</v>
+      </c>
+      <c r="D845">
+        <v>0</v>
+      </c>
+      <c r="E845">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>487</v>
+      </c>
+      <c r="B846" t="s">
+        <v>491</v>
+      </c>
+      <c r="C846" t="s">
+        <v>25</v>
+      </c>
+      <c r="D846">
+        <v>0</v>
+      </c>
+      <c r="E846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>487</v>
+      </c>
+      <c r="B847" t="s">
+        <v>492</v>
+      </c>
+      <c r="C847" t="s">
+        <v>489</v>
+      </c>
+      <c r="D847">
+        <v>0</v>
+      </c>
+      <c r="E847">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>487</v>
+      </c>
+      <c r="B848" t="s">
+        <v>492</v>
+      </c>
+      <c r="C848" t="s">
+        <v>9</v>
+      </c>
+      <c r="D848">
+        <v>0</v>
+      </c>
+      <c r="E848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>487</v>
+      </c>
+      <c r="B849" t="s">
+        <v>492</v>
+      </c>
+      <c r="C849" t="s">
+        <v>25</v>
+      </c>
+      <c r="D849">
+        <v>0</v>
+      </c>
+      <c r="E849">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>487</v>
+      </c>
+      <c r="B850" t="s">
+        <v>493</v>
+      </c>
+      <c r="C850" t="s">
+        <v>489</v>
+      </c>
+      <c r="D850">
+        <v>0</v>
+      </c>
+      <c r="E850">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>487</v>
+      </c>
+      <c r="B851" t="s">
+        <v>493</v>
+      </c>
+      <c r="C851" t="s">
+        <v>9</v>
+      </c>
+      <c r="D851">
+        <v>0</v>
+      </c>
+      <c r="E851">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>487</v>
+      </c>
+      <c r="B852" t="s">
+        <v>493</v>
+      </c>
+      <c r="C852" t="s">
+        <v>25</v>
+      </c>
+      <c r="D852">
+        <v>0</v>
+      </c>
+      <c r="E852">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>487</v>
+      </c>
+      <c r="B853" t="s">
+        <v>494</v>
+      </c>
+      <c r="C853" t="s">
+        <v>9</v>
+      </c>
+      <c r="D853">
+        <v>0</v>
+      </c>
+      <c r="E853">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>487</v>
+      </c>
+      <c r="B854" t="s">
+        <v>494</v>
+      </c>
+      <c r="C854" t="s">
+        <v>25</v>
+      </c>
+      <c r="D854">
+        <v>0</v>
+      </c>
+      <c r="E854">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>495</v>
+      </c>
+      <c r="B855" t="s">
+        <v>496</v>
+      </c>
+      <c r="C855" t="s">
+        <v>475</v>
+      </c>
+      <c r="D855">
+        <v>0</v>
+      </c>
+      <c r="E855">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>495</v>
+      </c>
+      <c r="B856" t="s">
+        <v>496</v>
+      </c>
+      <c r="C856" t="s">
+        <v>41</v>
+      </c>
+      <c r="D856">
+        <v>0</v>
+      </c>
+      <c r="E856">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>495</v>
+      </c>
+      <c r="B857" t="s">
+        <v>496</v>
+      </c>
+      <c r="C857" t="s">
+        <v>9</v>
+      </c>
+      <c r="D857">
+        <v>0</v>
+      </c>
+      <c r="E857">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>495</v>
+      </c>
+      <c r="B858" t="s">
+        <v>496</v>
+      </c>
+      <c r="C858" t="s">
+        <v>453</v>
+      </c>
+      <c r="D858">
+        <v>0</v>
+      </c>
+      <c r="E858">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>495</v>
+      </c>
+      <c r="B859" t="s">
+        <v>497</v>
+      </c>
+      <c r="C859" t="s">
+        <v>475</v>
+      </c>
+      <c r="D859">
+        <v>0</v>
+      </c>
+      <c r="E859">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>495</v>
+      </c>
+      <c r="B860" t="s">
+        <v>497</v>
+      </c>
+      <c r="C860" t="s">
+        <v>41</v>
+      </c>
+      <c r="D860">
+        <v>0</v>
+      </c>
+      <c r="E860">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>495</v>
+      </c>
+      <c r="B861" t="s">
+        <v>497</v>
+      </c>
+      <c r="C861" t="s">
+        <v>9</v>
+      </c>
+      <c r="D861">
+        <v>0</v>
+      </c>
+      <c r="E861">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>495</v>
+      </c>
+      <c r="B862" t="s">
+        <v>497</v>
+      </c>
+      <c r="C862" t="s">
+        <v>453</v>
+      </c>
+      <c r="D862">
+        <v>0</v>
+      </c>
+      <c r="E862">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>495</v>
+      </c>
+      <c r="B863" t="s">
+        <v>498</v>
+      </c>
+      <c r="C863" t="s">
+        <v>475</v>
+      </c>
+      <c r="D863">
+        <v>0</v>
+      </c>
+      <c r="E863">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>495</v>
+      </c>
+      <c r="B864" t="s">
+        <v>498</v>
+      </c>
+      <c r="C864" t="s">
+        <v>475</v>
+      </c>
+      <c r="D864">
+        <v>0</v>
+      </c>
+      <c r="E864">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>495</v>
+      </c>
+      <c r="B865" t="s">
+        <v>498</v>
+      </c>
+      <c r="C865" t="s">
+        <v>475</v>
+      </c>
+      <c r="D865">
+        <v>0</v>
+      </c>
+      <c r="E865">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>495</v>
+      </c>
+      <c r="B866" t="s">
+        <v>498</v>
+      </c>
+      <c r="C866" t="s">
+        <v>41</v>
+      </c>
+      <c r="D866">
+        <v>0</v>
+      </c>
+      <c r="E866">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>495</v>
+      </c>
+      <c r="B867" t="s">
+        <v>498</v>
+      </c>
+      <c r="C867" t="s">
+        <v>76</v>
+      </c>
+      <c r="D867">
+        <v>0</v>
+      </c>
+      <c r="E867">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>495</v>
+      </c>
+      <c r="B868" t="s">
+        <v>498</v>
+      </c>
+      <c r="C868" t="s">
+        <v>76</v>
+      </c>
+      <c r="D868">
+        <v>0</v>
+      </c>
+      <c r="E868">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>499</v>
+      </c>
+      <c r="B869" t="s">
+        <v>500</v>
+      </c>
+      <c r="C869" t="s">
+        <v>9</v>
+      </c>
+      <c r="D869">
+        <v>0</v>
+      </c>
+      <c r="E869">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>499</v>
+      </c>
+      <c r="B870" t="s">
+        <v>501</v>
+      </c>
+      <c r="C870" t="s">
+        <v>9</v>
+      </c>
+      <c r="D870">
+        <v>0</v>
+      </c>
+      <c r="E870">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>499</v>
+      </c>
+      <c r="B871" t="s">
+        <v>502</v>
+      </c>
+      <c r="C871" t="s">
+        <v>71</v>
+      </c>
+      <c r="D871">
+        <v>0</v>
+      </c>
+      <c r="E871">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>499</v>
+      </c>
+      <c r="B872" t="s">
+        <v>503</v>
+      </c>
+      <c r="C872" t="s">
+        <v>7</v>
+      </c>
+      <c r="D872">
+        <v>0</v>
+      </c>
+      <c r="E872">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>499</v>
+      </c>
+      <c r="B873" t="s">
+        <v>504</v>
+      </c>
+      <c r="C873" t="s">
+        <v>99</v>
+      </c>
+      <c r="D873">
+        <v>0</v>
+      </c>
+      <c r="E873">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>499</v>
+      </c>
+      <c r="B874" t="s">
+        <v>505</v>
+      </c>
+      <c r="C874" t="s">
+        <v>7</v>
+      </c>
+      <c r="D874">
+        <v>0</v>
+      </c>
+      <c r="E874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>499</v>
+      </c>
+      <c r="B875" t="s">
+        <v>505</v>
+      </c>
+      <c r="C875" t="s">
+        <v>99</v>
+      </c>
+      <c r="D875">
+        <v>0</v>
+      </c>
+      <c r="E875">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>499</v>
+      </c>
+      <c r="B876" t="s">
+        <v>505</v>
+      </c>
+      <c r="C876" t="s">
+        <v>71</v>
+      </c>
+      <c r="D876">
+        <v>0</v>
+      </c>
+      <c r="E876">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>499</v>
+      </c>
+      <c r="B877" t="s">
+        <v>506</v>
+      </c>
+      <c r="C877" t="s">
+        <v>7</v>
+      </c>
+      <c r="D877">
+        <v>0</v>
+      </c>
+      <c r="E877">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>499</v>
+      </c>
+      <c r="B878" t="s">
+        <v>506</v>
+      </c>
+      <c r="C878" t="s">
+        <v>71</v>
+      </c>
+      <c r="D878">
+        <v>0</v>
+      </c>
+      <c r="E878">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>499</v>
+      </c>
+      <c r="B879" t="s">
+        <v>507</v>
+      </c>
+      <c r="C879" t="s">
+        <v>7</v>
+      </c>
+      <c r="D879">
+        <v>0</v>
+      </c>
+      <c r="E879">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>499</v>
+      </c>
+      <c r="B880" t="s">
+        <v>507</v>
+      </c>
+      <c r="C880" t="s">
+        <v>99</v>
+      </c>
+      <c r="D880">
+        <v>0</v>
+      </c>
+      <c r="E880">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>499</v>
+      </c>
+      <c r="B881" t="s">
+        <v>507</v>
+      </c>
+      <c r="C881" t="s">
+        <v>9</v>
+      </c>
+      <c r="D881">
+        <v>0</v>
+      </c>
+      <c r="E881">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>499</v>
+      </c>
+      <c r="B882" t="s">
+        <v>508</v>
+      </c>
+      <c r="C882" t="s">
+        <v>7</v>
+      </c>
+      <c r="D882">
+        <v>0</v>
+      </c>
+      <c r="E882">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>499</v>
+      </c>
+      <c r="B883" t="s">
+        <v>508</v>
+      </c>
+      <c r="C883" t="s">
+        <v>9</v>
+      </c>
+      <c r="D883">
+        <v>0</v>
+      </c>
+      <c r="E883">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>499</v>
+      </c>
+      <c r="B884" t="s">
+        <v>509</v>
+      </c>
+      <c r="C884" t="s">
+        <v>84</v>
+      </c>
+      <c r="D884">
+        <v>0</v>
+      </c>
+      <c r="E884">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>499</v>
+      </c>
+      <c r="B885" t="s">
+        <v>509</v>
+      </c>
+      <c r="C885" t="s">
+        <v>99</v>
+      </c>
+      <c r="D885">
+        <v>0</v>
+      </c>
+      <c r="E885">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>499</v>
+      </c>
+      <c r="B886" t="s">
+        <v>510</v>
+      </c>
+      <c r="C886" t="s">
+        <v>71</v>
+      </c>
+      <c r="D886">
+        <v>0</v>
+      </c>
+      <c r="E886">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>499</v>
+      </c>
+      <c r="B887" t="s">
+        <v>511</v>
+      </c>
+      <c r="C887" t="s">
+        <v>84</v>
+      </c>
+      <c r="D887">
+        <v>0</v>
+      </c>
+      <c r="E887">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>499</v>
+      </c>
+      <c r="B888" t="s">
+        <v>511</v>
+      </c>
+      <c r="C888" t="s">
+        <v>9</v>
+      </c>
+      <c r="D888">
+        <v>0</v>
+      </c>
+      <c r="E888">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>499</v>
+      </c>
+      <c r="B889" t="s">
+        <v>512</v>
+      </c>
+      <c r="C889" t="s">
+        <v>7</v>
+      </c>
+      <c r="D889">
+        <v>0</v>
+      </c>
+      <c r="E889">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>499</v>
+      </c>
+      <c r="B890" t="s">
+        <v>512</v>
+      </c>
+      <c r="C890" t="s">
+        <v>71</v>
+      </c>
+      <c r="D890">
+        <v>0</v>
+      </c>
+      <c r="E890">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>499</v>
+      </c>
+      <c r="B891" t="s">
+        <v>513</v>
+      </c>
+      <c r="C891" t="s">
+        <v>71</v>
+      </c>
+      <c r="D891">
+        <v>0</v>
+      </c>
+      <c r="E891">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>499</v>
+      </c>
+      <c r="B892" t="s">
+        <v>514</v>
+      </c>
+      <c r="C892" t="s">
+        <v>99</v>
+      </c>
+      <c r="D892">
+        <v>0</v>
+      </c>
+      <c r="E892">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>499</v>
+      </c>
+      <c r="B893" t="s">
+        <v>515</v>
+      </c>
+      <c r="C893" t="s">
+        <v>99</v>
+      </c>
+      <c r="D893">
+        <v>0</v>
+      </c>
+      <c r="E893">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>499</v>
+      </c>
+      <c r="B894" t="s">
+        <v>516</v>
+      </c>
+      <c r="C894" t="s">
+        <v>7</v>
+      </c>
+      <c r="D894">
+        <v>0</v>
+      </c>
+      <c r="E894">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>499</v>
+      </c>
+      <c r="B895" t="s">
+        <v>517</v>
+      </c>
+      <c r="C895" t="s">
+        <v>9</v>
+      </c>
+      <c r="D895">
+        <v>0</v>
+      </c>
+      <c r="E895">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>499</v>
+      </c>
+      <c r="B896" t="s">
+        <v>518</v>
+      </c>
+      <c r="C896" t="s">
+        <v>41</v>
+      </c>
+      <c r="D896">
+        <v>0</v>
+      </c>
+      <c r="E896">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>499</v>
+      </c>
+      <c r="B897" t="s">
+        <v>519</v>
+      </c>
+      <c r="C897" t="s">
+        <v>71</v>
+      </c>
+      <c r="D897">
+        <v>0</v>
+      </c>
+      <c r="E897">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>499</v>
+      </c>
+      <c r="B898" t="s">
+        <v>520</v>
+      </c>
+      <c r="C898" t="s">
+        <v>7</v>
+      </c>
+      <c r="D898">
+        <v>0</v>
+      </c>
+      <c r="E898">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>521</v>
+      </c>
+      <c r="B899" t="s">
+        <v>522</v>
+      </c>
+      <c r="C899" t="s">
+        <v>475</v>
+      </c>
+      <c r="D899">
+        <v>0</v>
+      </c>
+      <c r="E899">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>521</v>
+      </c>
+      <c r="B900" t="s">
+        <v>522</v>
+      </c>
+      <c r="C900" t="s">
+        <v>475</v>
+      </c>
+      <c r="D900">
+        <v>0</v>
+      </c>
+      <c r="E900">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>521</v>
+      </c>
+      <c r="B901" t="s">
+        <v>523</v>
+      </c>
+      <c r="C901" t="s">
+        <v>475</v>
+      </c>
+      <c r="D901">
+        <v>0</v>
+      </c>
+      <c r="E901">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>521</v>
+      </c>
+      <c r="B902" t="s">
+        <v>523</v>
+      </c>
+      <c r="C902" t="s">
+        <v>475</v>
+      </c>
+      <c r="D902">
+        <v>0</v>
+      </c>
+      <c r="E902">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>521</v>
+      </c>
+      <c r="B903" t="s">
+        <v>524</v>
+      </c>
+      <c r="C903" t="s">
+        <v>475</v>
+      </c>
+      <c r="D903">
+        <v>0</v>
+      </c>
+      <c r="E903">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>521</v>
+      </c>
+      <c r="B904" t="s">
+        <v>524</v>
+      </c>
+      <c r="C904" t="s">
+        <v>475</v>
+      </c>
+      <c r="D904">
+        <v>0</v>
+      </c>
+      <c r="E904">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>521</v>
+      </c>
+      <c r="B905" t="s">
+        <v>525</v>
+      </c>
+      <c r="C905" t="s">
+        <v>475</v>
+      </c>
+      <c r="D905">
+        <v>0</v>
+      </c>
+      <c r="E905">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>521</v>
+      </c>
+      <c r="B906" t="s">
+        <v>526</v>
+      </c>
+      <c r="C906" t="s">
+        <v>475</v>
+      </c>
+      <c r="D906">
+        <v>0</v>
+      </c>
+      <c r="E906">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>521</v>
+      </c>
+      <c r="B907" t="s">
+        <v>526</v>
+      </c>
+      <c r="C907" t="s">
+        <v>9</v>
+      </c>
+      <c r="D907">
+        <v>0</v>
+      </c>
+      <c r="E907">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>521</v>
+      </c>
+      <c r="B908" t="s">
+        <v>527</v>
+      </c>
+      <c r="C908" t="s">
+        <v>475</v>
+      </c>
+      <c r="D908">
+        <v>0</v>
+      </c>
+      <c r="E908">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>521</v>
+      </c>
+      <c r="B909" t="s">
+        <v>528</v>
+      </c>
+      <c r="C909" t="s">
+        <v>475</v>
+      </c>
+      <c r="D909">
+        <v>0</v>
+      </c>
+      <c r="E909">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>521</v>
+      </c>
+      <c r="B910" t="s">
+        <v>528</v>
+      </c>
+      <c r="C910" t="s">
+        <v>475</v>
+      </c>
+      <c r="D910">
+        <v>0</v>
+      </c>
+      <c r="E910">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>521</v>
+      </c>
+      <c r="B911" t="s">
+        <v>529</v>
+      </c>
+      <c r="C911" t="s">
+        <v>9</v>
+      </c>
+      <c r="D911">
+        <v>0</v>
+      </c>
+      <c r="E911">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>521</v>
+      </c>
+      <c r="B912" t="s">
+        <v>530</v>
+      </c>
+      <c r="C912" t="s">
+        <v>475</v>
+      </c>
+      <c r="D912">
+        <v>0</v>
+      </c>
+      <c r="E912">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>521</v>
+      </c>
+      <c r="B913" t="s">
+        <v>530</v>
+      </c>
+      <c r="C913" t="s">
+        <v>475</v>
+      </c>
+      <c r="D913">
+        <v>0</v>
+      </c>
+      <c r="E913">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>521</v>
+      </c>
+      <c r="B914" t="s">
+        <v>531</v>
+      </c>
+      <c r="C914" t="s">
+        <v>475</v>
+      </c>
+      <c r="D914">
+        <v>0</v>
+      </c>
+      <c r="E914">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>521</v>
+      </c>
+      <c r="B915" t="s">
+        <v>531</v>
+      </c>
+      <c r="C915" t="s">
+        <v>475</v>
+      </c>
+      <c r="D915">
+        <v>0</v>
+      </c>
+      <c r="E915">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>521</v>
+      </c>
+      <c r="B916" t="s">
+        <v>531</v>
+      </c>
+      <c r="C916" t="s">
+        <v>76</v>
+      </c>
+      <c r="D916">
+        <v>0</v>
+      </c>
+      <c r="E916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>521</v>
+      </c>
+      <c r="B917" t="s">
+        <v>532</v>
+      </c>
+      <c r="C917" t="s">
+        <v>475</v>
+      </c>
+      <c r="D917">
+        <v>0</v>
+      </c>
+      <c r="E917">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>521</v>
+      </c>
+      <c r="B918" t="s">
+        <v>532</v>
+      </c>
+      <c r="C918" t="s">
+        <v>99</v>
+      </c>
+      <c r="D918">
+        <v>0</v>
+      </c>
+      <c r="E918">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>521</v>
+      </c>
+      <c r="B919" t="s">
+        <v>532</v>
+      </c>
+      <c r="C919" t="s">
+        <v>533</v>
+      </c>
+      <c r="D919">
+        <v>0</v>
+      </c>
+      <c r="E919">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>521</v>
+      </c>
+      <c r="B920" t="s">
+        <v>532</v>
+      </c>
+      <c r="C920" t="s">
+        <v>12</v>
+      </c>
+      <c r="D920">
+        <v>0</v>
+      </c>
+      <c r="E920">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>521</v>
+      </c>
+      <c r="B921" t="s">
+        <v>534</v>
+      </c>
+      <c r="C921" t="s">
+        <v>475</v>
+      </c>
+      <c r="D921">
+        <v>0</v>
+      </c>
+      <c r="E921">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>521</v>
+      </c>
+      <c r="B922" t="s">
+        <v>535</v>
+      </c>
+      <c r="C922" t="s">
+        <v>475</v>
+      </c>
+      <c r="D922">
+        <v>0</v>
+      </c>
+      <c r="E922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>521</v>
+      </c>
+      <c r="B923" t="s">
+        <v>535</v>
+      </c>
+      <c r="C923" t="s">
+        <v>9</v>
+      </c>
+      <c r="D923">
+        <v>0</v>
+      </c>
+      <c r="E923">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>521</v>
+      </c>
+      <c r="B924" t="s">
+        <v>536</v>
+      </c>
+      <c r="C924" t="s">
+        <v>475</v>
+      </c>
+      <c r="D924">
+        <v>0</v>
+      </c>
+      <c r="E924">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>521</v>
+      </c>
+      <c r="B925" t="s">
+        <v>536</v>
+      </c>
+      <c r="C925" t="s">
+        <v>76</v>
+      </c>
+      <c r="D925">
+        <v>0</v>
+      </c>
+      <c r="E925">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>521</v>
+      </c>
+      <c r="B926" t="s">
+        <v>537</v>
+      </c>
+      <c r="C926" t="s">
+        <v>475</v>
+      </c>
+      <c r="D926">
+        <v>0</v>
+      </c>
+      <c r="E926">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>521</v>
+      </c>
+      <c r="B927" t="s">
+        <v>537</v>
+      </c>
+      <c r="C927" t="s">
+        <v>76</v>
+      </c>
+      <c r="D927">
+        <v>0</v>
+      </c>
+      <c r="E927">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>521</v>
+      </c>
+      <c r="B928" t="s">
+        <v>537</v>
+      </c>
+      <c r="C928" t="s">
+        <v>41</v>
+      </c>
+      <c r="D928">
+        <v>0</v>
+      </c>
+      <c r="E928">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>521</v>
+      </c>
+      <c r="B929" t="s">
+        <v>537</v>
+      </c>
+      <c r="C929" t="s">
+        <v>538</v>
+      </c>
+      <c r="D929">
+        <v>0</v>
+      </c>
+      <c r="E929">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>539</v>
+      </c>
+      <c r="B930" t="s">
+        <v>540</v>
+      </c>
+      <c r="C930" t="s">
+        <v>475</v>
+      </c>
+      <c r="D930">
+        <v>0</v>
+      </c>
+      <c r="E930">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>539</v>
+      </c>
+      <c r="B931" t="s">
+        <v>540</v>
+      </c>
+      <c r="C931" t="s">
+        <v>533</v>
+      </c>
+      <c r="D931">
+        <v>0</v>
+      </c>
+      <c r="E931">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>539</v>
+      </c>
+      <c r="B932" t="s">
+        <v>540</v>
+      </c>
+      <c r="C932" t="s">
+        <v>9</v>
+      </c>
+      <c r="D932">
+        <v>0</v>
+      </c>
+      <c r="E932">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>539</v>
+      </c>
+      <c r="B933" t="s">
+        <v>541</v>
+      </c>
+      <c r="C933" t="s">
+        <v>475</v>
+      </c>
+      <c r="D933">
+        <v>0</v>
+      </c>
+      <c r="E933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>539</v>
+      </c>
+      <c r="B934" t="s">
+        <v>541</v>
+      </c>
+      <c r="C934" t="s">
+        <v>533</v>
+      </c>
+      <c r="D934">
+        <v>0</v>
+      </c>
+      <c r="E934">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>539</v>
+      </c>
+      <c r="B935" t="s">
+        <v>541</v>
+      </c>
+      <c r="C935" t="s">
+        <v>71</v>
+      </c>
+      <c r="D935">
+        <v>0</v>
+      </c>
+      <c r="E935">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>539</v>
+      </c>
+      <c r="B936" t="s">
+        <v>542</v>
+      </c>
+      <c r="C936" t="s">
+        <v>475</v>
+      </c>
+      <c r="D936">
+        <v>0</v>
+      </c>
+      <c r="E936">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>539</v>
+      </c>
+      <c r="B937" t="s">
+        <v>542</v>
+      </c>
+      <c r="C937" t="s">
+        <v>71</v>
+      </c>
+      <c r="D937">
+        <v>0</v>
+      </c>
+      <c r="E937">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>539</v>
+      </c>
+      <c r="B938" t="s">
+        <v>543</v>
+      </c>
+      <c r="C938" t="s">
+        <v>9</v>
+      </c>
+      <c r="D938">
+        <v>0</v>
+      </c>
+      <c r="E938">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>539</v>
+      </c>
+      <c r="B939" t="s">
+        <v>544</v>
+      </c>
+      <c r="C939" t="s">
+        <v>475</v>
+      </c>
+      <c r="D939">
+        <v>0</v>
+      </c>
+      <c r="E939">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>539</v>
+      </c>
+      <c r="B940" t="s">
+        <v>544</v>
+      </c>
+      <c r="C940" t="s">
+        <v>533</v>
+      </c>
+      <c r="D940">
+        <v>0</v>
+      </c>
+      <c r="E940">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>539</v>
+      </c>
+      <c r="B941" t="s">
+        <v>544</v>
+      </c>
+      <c r="C941" t="s">
+        <v>9</v>
+      </c>
+      <c r="D941">
+        <v>0</v>
+      </c>
+      <c r="E941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>539</v>
+      </c>
+      <c r="B942" t="s">
+        <v>545</v>
+      </c>
+      <c r="C942" t="s">
+        <v>475</v>
+      </c>
+      <c r="D942">
+        <v>0</v>
+      </c>
+      <c r="E942">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>539</v>
+      </c>
+      <c r="B943" t="s">
+        <v>545</v>
+      </c>
+      <c r="C943" t="s">
+        <v>9</v>
+      </c>
+      <c r="D943">
+        <v>0</v>
+      </c>
+      <c r="E943">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>539</v>
+      </c>
+      <c r="B944" t="s">
+        <v>545</v>
+      </c>
+      <c r="C944" t="s">
+        <v>71</v>
+      </c>
+      <c r="D944">
+        <v>0</v>
+      </c>
+      <c r="E944">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>539</v>
+      </c>
+      <c r="B945" t="s">
+        <v>546</v>
+      </c>
+      <c r="C945" t="s">
+        <v>475</v>
+      </c>
+      <c r="D945">
+        <v>0</v>
+      </c>
+      <c r="E945">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>539</v>
+      </c>
+      <c r="B946" t="s">
+        <v>546</v>
+      </c>
+      <c r="C946" t="s">
+        <v>25</v>
+      </c>
+      <c r="D946">
+        <v>1</v>
+      </c>
+      <c r="E946">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>539</v>
+      </c>
+      <c r="B947" t="s">
+        <v>547</v>
+      </c>
+      <c r="C947" t="s">
+        <v>475</v>
+      </c>
+      <c r="D947">
+        <v>0</v>
+      </c>
+      <c r="E947">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>539</v>
+      </c>
+      <c r="B948" t="s">
+        <v>547</v>
+      </c>
+      <c r="C948" t="s">
+        <v>25</v>
+      </c>
+      <c r="D948">
+        <v>1</v>
+      </c>
+      <c r="E948">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>539</v>
+      </c>
+      <c r="B949" t="s">
+        <v>548</v>
+      </c>
+      <c r="C949" t="s">
+        <v>475</v>
+      </c>
+      <c r="D949">
+        <v>0</v>
+      </c>
+      <c r="E949">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>539</v>
+      </c>
+      <c r="B950" t="s">
+        <v>548</v>
+      </c>
+      <c r="C950" t="s">
+        <v>71</v>
+      </c>
+      <c r="D950">
+        <v>0</v>
+      </c>
+      <c r="E950">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>539</v>
+      </c>
+      <c r="B951" t="s">
+        <v>549</v>
+      </c>
+      <c r="C951" t="s">
+        <v>475</v>
+      </c>
+      <c r="D951">
+        <v>0</v>
+      </c>
+      <c r="E951">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>539</v>
+      </c>
+      <c r="B952" t="s">
+        <v>549</v>
+      </c>
+      <c r="C952" t="s">
+        <v>475</v>
+      </c>
+      <c r="D952">
+        <v>0</v>
+      </c>
+      <c r="E952">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>539</v>
+      </c>
+      <c r="B953" t="s">
+        <v>549</v>
+      </c>
+      <c r="C953" t="s">
+        <v>464</v>
+      </c>
+      <c r="D953">
+        <v>0</v>
+      </c>
+      <c r="E953">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>539</v>
+      </c>
+      <c r="B954" t="s">
+        <v>550</v>
+      </c>
+      <c r="C954" t="s">
+        <v>475</v>
+      </c>
+      <c r="D954">
+        <v>0</v>
+      </c>
+      <c r="E954">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>539</v>
+      </c>
+      <c r="B955" t="s">
+        <v>550</v>
+      </c>
+      <c r="C955" t="s">
+        <v>76</v>
+      </c>
+      <c r="D955">
+        <v>0</v>
+      </c>
+      <c r="E955">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>539</v>
+      </c>
+      <c r="B956" t="s">
+        <v>550</v>
+      </c>
+      <c r="C956" t="s">
+        <v>76</v>
+      </c>
+      <c r="D956">
+        <v>0</v>
+      </c>
+      <c r="E956">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>539</v>
+      </c>
+      <c r="B957" t="s">
+        <v>551</v>
+      </c>
+      <c r="C957" t="s">
+        <v>475</v>
+      </c>
+      <c r="D957">
+        <v>0</v>
+      </c>
+      <c r="E957">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>539</v>
+      </c>
+      <c r="B958" t="s">
+        <v>552</v>
+      </c>
+      <c r="C958" t="s">
+        <v>475</v>
+      </c>
+      <c r="D958">
+        <v>0</v>
+      </c>
+      <c r="E958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>539</v>
+      </c>
+      <c r="B959" t="s">
+        <v>552</v>
+      </c>
+      <c r="C959" t="s">
+        <v>403</v>
+      </c>
+      <c r="D959">
+        <v>0</v>
+      </c>
+      <c r="E959">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>539</v>
+      </c>
+      <c r="B960" t="s">
+        <v>553</v>
+      </c>
+      <c r="C960" t="s">
+        <v>475</v>
+      </c>
+      <c r="D960">
+        <v>0</v>
+      </c>
+      <c r="E960">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>554</v>
+      </c>
+      <c r="B961" t="s">
+        <v>555</v>
+      </c>
+      <c r="C961" t="s">
+        <v>9</v>
+      </c>
+      <c r="D961">
+        <v>1</v>
+      </c>
+      <c r="E961">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>554</v>
+      </c>
+      <c r="B962" t="s">
+        <v>555</v>
+      </c>
+      <c r="C962" t="s">
+        <v>9</v>
+      </c>
+      <c r="D962">
+        <v>1</v>
+      </c>
+      <c r="E962">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>554</v>
+      </c>
+      <c r="B963" t="s">
+        <v>555</v>
+      </c>
+      <c r="C963" t="s">
+        <v>9</v>
+      </c>
+      <c r="D963">
+        <v>1</v>
+      </c>
+      <c r="E963">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>554</v>
+      </c>
+      <c r="B964" t="s">
+        <v>556</v>
+      </c>
+      <c r="C964" t="s">
+        <v>9</v>
+      </c>
+      <c r="D964">
+        <v>0</v>
+      </c>
+      <c r="E964">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>554</v>
+      </c>
+      <c r="B965" t="s">
+        <v>556</v>
+      </c>
+      <c r="C965" t="s">
+        <v>25</v>
+      </c>
+      <c r="D965">
+        <v>0</v>
+      </c>
+      <c r="E965">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>554</v>
+      </c>
+      <c r="B966" t="s">
+        <v>556</v>
+      </c>
+      <c r="C966" t="s">
+        <v>9</v>
+      </c>
+      <c r="D966">
+        <v>0</v>
+      </c>
+      <c r="E966">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>554</v>
+      </c>
+      <c r="B967" t="s">
+        <v>556</v>
+      </c>
+      <c r="C967" t="s">
+        <v>25</v>
+      </c>
+      <c r="D967">
+        <v>0</v>
+      </c>
+      <c r="E967">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>554</v>
+      </c>
+      <c r="B968" t="s">
+        <v>556</v>
+      </c>
+      <c r="C968" t="s">
+        <v>99</v>
+      </c>
+      <c r="D968">
+        <v>1</v>
+      </c>
+      <c r="E968">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>554</v>
+      </c>
+      <c r="B969" t="s">
+        <v>556</v>
+      </c>
+      <c r="C969" t="s">
+        <v>9</v>
+      </c>
+      <c r="D969">
+        <v>0</v>
+      </c>
+      <c r="E969">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>554</v>
+      </c>
+      <c r="B970" t="s">
+        <v>556</v>
+      </c>
+      <c r="C970" t="s">
+        <v>25</v>
+      </c>
+      <c r="D970">
+        <v>0</v>
+      </c>
+      <c r="E970">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>554</v>
+      </c>
+      <c r="B971" t="s">
+        <v>556</v>
+      </c>
+      <c r="C971" t="s">
+        <v>9</v>
+      </c>
+      <c r="D971">
+        <v>0</v>
+      </c>
+      <c r="E971">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>557</v>
+      </c>
+      <c r="B972" t="s">
+        <v>558</v>
+      </c>
+      <c r="C972" t="s">
+        <v>25</v>
+      </c>
+      <c r="D972">
+        <v>1</v>
+      </c>
+      <c r="E972">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>557</v>
+      </c>
+      <c r="B973" t="s">
+        <v>558</v>
+      </c>
+      <c r="C973" t="s">
+        <v>9</v>
+      </c>
+      <c r="D973">
+        <v>1</v>
+      </c>
+      <c r="E973">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>559</v>
+      </c>
+      <c r="B974" t="s">
+        <v>560</v>
+      </c>
+      <c r="C974" t="s">
+        <v>7</v>
+      </c>
+      <c r="D974">
+        <v>0</v>
+      </c>
+      <c r="E974">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>559</v>
+      </c>
+      <c r="B975" t="s">
+        <v>560</v>
+      </c>
+      <c r="C975" t="s">
+        <v>25</v>
+      </c>
+      <c r="D975">
+        <v>0</v>
+      </c>
+      <c r="E975">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>559</v>
+      </c>
+      <c r="B976" t="s">
+        <v>560</v>
+      </c>
+      <c r="C976" t="s">
+        <v>8</v>
+      </c>
+      <c r="D976">
+        <v>0</v>
+      </c>
+      <c r="E976">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>559</v>
+      </c>
+      <c r="B977" t="s">
+        <v>560</v>
+      </c>
+      <c r="C977" t="s">
+        <v>41</v>
+      </c>
+      <c r="D977">
+        <v>0</v>
+      </c>
+      <c r="E977">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>559</v>
+      </c>
+      <c r="B978" t="s">
+        <v>560</v>
+      </c>
+      <c r="C978" t="s">
+        <v>403</v>
+      </c>
+      <c r="D978">
+        <v>0</v>
+      </c>
+      <c r="E978">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>559</v>
+      </c>
+      <c r="B979" t="s">
+        <v>561</v>
+      </c>
+      <c r="C979" t="s">
+        <v>7</v>
+      </c>
+      <c r="D979">
+        <v>0</v>
+      </c>
+      <c r="E979">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>559</v>
+      </c>
+      <c r="B980" t="s">
+        <v>561</v>
+      </c>
+      <c r="C980" t="s">
+        <v>7</v>
+      </c>
+      <c r="D980">
+        <v>0</v>
+      </c>
+      <c r="E980">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>559</v>
+      </c>
+      <c r="B981" t="s">
+        <v>561</v>
+      </c>
+      <c r="C981" t="s">
+        <v>7</v>
+      </c>
+      <c r="D981">
+        <v>0</v>
+      </c>
+      <c r="E981">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>559</v>
+      </c>
+      <c r="B982" t="s">
+        <v>561</v>
+      </c>
+      <c r="C982" t="s">
+        <v>25</v>
+      </c>
+      <c r="D982">
+        <v>0</v>
+      </c>
+      <c r="E982">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>559</v>
+      </c>
+      <c r="B983" t="s">
+        <v>561</v>
+      </c>
+      <c r="C983" t="s">
+        <v>8</v>
+      </c>
+      <c r="D983">
+        <v>0</v>
+      </c>
+      <c r="E983">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>559</v>
+      </c>
+      <c r="B984" t="s">
+        <v>561</v>
+      </c>
+      <c r="C984" t="s">
+        <v>41</v>
+      </c>
+      <c r="D984">
+        <v>0</v>
+      </c>
+      <c r="E984">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>559</v>
+      </c>
+      <c r="B985" t="s">
+        <v>561</v>
+      </c>
+      <c r="C985" t="s">
+        <v>76</v>
+      </c>
+      <c r="D985">
+        <v>0</v>
+      </c>
+      <c r="E985">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>559</v>
+      </c>
+      <c r="B986" t="s">
+        <v>561</v>
+      </c>
+      <c r="C986" t="s">
+        <v>76</v>
+      </c>
+      <c r="D986">
+        <v>0</v>
+      </c>
+      <c r="E986">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>559</v>
+      </c>
+      <c r="B987" t="s">
+        <v>561</v>
+      </c>
+      <c r="C987" t="s">
+        <v>99</v>
+      </c>
+      <c r="D987">
+        <v>0</v>
+      </c>
+      <c r="E987">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>562</v>
+      </c>
+      <c r="B988" t="s">
+        <v>563</v>
+      </c>
+      <c r="C988" t="s">
+        <v>475</v>
+      </c>
+      <c r="D988">
+        <v>0</v>
+      </c>
+      <c r="E988">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>562</v>
+      </c>
+      <c r="B989" t="s">
+        <v>563</v>
+      </c>
+      <c r="C989" t="s">
+        <v>76</v>
+      </c>
+      <c r="D989">
+        <v>0</v>
+      </c>
+      <c r="E989">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>562</v>
+      </c>
+      <c r="B990" t="s">
+        <v>563</v>
+      </c>
+      <c r="C990" t="s">
+        <v>41</v>
+      </c>
+      <c r="D990">
+        <v>0</v>
+      </c>
+      <c r="E990">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>562</v>
+      </c>
+      <c r="B991" t="s">
+        <v>564</v>
+      </c>
+      <c r="C991" t="s">
+        <v>475</v>
+      </c>
+      <c r="D991">
+        <v>0</v>
+      </c>
+      <c r="E991">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>562</v>
+      </c>
+      <c r="B992" t="s">
+        <v>564</v>
+      </c>
+      <c r="C992" t="s">
+        <v>76</v>
+      </c>
+      <c r="D992">
+        <v>0</v>
+      </c>
+      <c r="E992">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>562</v>
+      </c>
+      <c r="B993" t="s">
+        <v>564</v>
+      </c>
+      <c r="C993" t="s">
+        <v>41</v>
+      </c>
+      <c r="D993">
+        <v>0</v>
+      </c>
+      <c r="E993">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>562</v>
+      </c>
+      <c r="B994" t="s">
+        <v>565</v>
+      </c>
+      <c r="C994" t="s">
+        <v>475</v>
+      </c>
+      <c r="D994">
+        <v>0</v>
+      </c>
+      <c r="E994">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>562</v>
+      </c>
+      <c r="B995" t="s">
+        <v>565</v>
+      </c>
+      <c r="C995" t="s">
+        <v>453</v>
+      </c>
+      <c r="D995">
+        <v>0</v>
+      </c>
+      <c r="E995">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>562</v>
+      </c>
+      <c r="B996" t="s">
+        <v>566</v>
+      </c>
+      <c r="C996" t="s">
+        <v>453</v>
+      </c>
+      <c r="D996">
+        <v>0</v>
+      </c>
+      <c r="E996">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>562</v>
+      </c>
+      <c r="B997" t="s">
+        <v>567</v>
+      </c>
+      <c r="C997" t="s">
+        <v>475</v>
+      </c>
+      <c r="D997">
+        <v>0</v>
+      </c>
+      <c r="E997">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>562</v>
+      </c>
+      <c r="B998" t="s">
+        <v>567</v>
+      </c>
+      <c r="C998" t="s">
+        <v>99</v>
+      </c>
+      <c r="D998">
+        <v>1</v>
+      </c>
+      <c r="E998">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>562</v>
+      </c>
+      <c r="B999" t="s">
+        <v>567</v>
+      </c>
+      <c r="C999" t="s">
+        <v>9</v>
+      </c>
+      <c r="D999">
+        <v>0</v>
+      </c>
+      <c r="E999">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1000">
+        <v>0</v>
+      </c>
+      <c r="E1000">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1001">
+        <v>0</v>
+      </c>
+      <c r="E1001">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1002">
+        <v>0</v>
+      </c>
+      <c r="E1002">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1003">
+        <v>0</v>
+      </c>
+      <c r="E1003">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1004">
+        <v>0</v>
+      </c>
+      <c r="E1004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1005">
+        <v>0</v>
+      </c>
+      <c r="E1005">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>570</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1006">
+        <v>0</v>
+      </c>
+      <c r="E1006">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1007">
+        <v>0</v>
+      </c>
+      <c r="E1007">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1008">
+        <v>0</v>
+      </c>
+      <c r="E1008">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1009">
+        <v>0</v>
+      </c>
+      <c r="E1009">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>572</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1010">
+        <v>0</v>
+      </c>
+      <c r="E1010">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1011">
+        <v>0</v>
+      </c>
+      <c r="E1011">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1012">
+        <v>0</v>
+      </c>
+      <c r="E1012">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1013">
+        <v>0</v>
+      </c>
+      <c r="E1013">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1014">
+        <v>0</v>
+      </c>
+      <c r="E1014">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1015">
+        <v>0</v>
+      </c>
+      <c r="E1015">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1016">
+        <v>0</v>
+      </c>
+      <c r="E1016">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1017">
+        <v>0</v>
+      </c>
+      <c r="E1017">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>577</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1018">
+        <v>0</v>
+      </c>
+      <c r="E1018">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>579</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1019">
+        <v>0</v>
+      </c>
+      <c r="E1019">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>579</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1020">
+        <v>0</v>
+      </c>
+      <c r="E1020">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1021">
+        <v>0</v>
+      </c>
+      <c r="E1021">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1022">
+        <v>0</v>
+      </c>
+      <c r="E1022">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1023">
+        <v>0</v>
+      </c>
+      <c r="E1023">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>582</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1024">
+        <v>0</v>
+      </c>
+      <c r="E1024">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>582</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1025">
+        <v>0</v>
+      </c>
+      <c r="E1025">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1026">
+        <v>0</v>
+      </c>
+      <c r="E1026">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1027">
+        <v>0</v>
+      </c>
+      <c r="E1027">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1028">
+        <v>0</v>
+      </c>
+      <c r="E1028">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1029">
+        <v>0</v>
+      </c>
+      <c r="E1029">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>584</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1030">
+        <v>0</v>
+      </c>
+      <c r="E1030">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1031">
+        <v>0</v>
+      </c>
+      <c r="E1031">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1032">
+        <v>0</v>
+      </c>
+      <c r="E1032">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>586</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1033">
+        <v>0</v>
+      </c>
+      <c r="E1033">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>586</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1034">
+        <v>0</v>
+      </c>
+      <c r="E1034">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1035">
+        <v>0</v>
+      </c>
+      <c r="E1035">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1036">
+        <v>0</v>
+      </c>
+      <c r="E1036">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1037">
+        <v>0</v>
+      </c>
+      <c r="E1037">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>588</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1038">
+        <v>0</v>
+      </c>
+      <c r="E1038">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>588</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1039">
+        <v>0</v>
+      </c>
+      <c r="E1039">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>588</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1040">
+        <v>0</v>
+      </c>
+      <c r="E1040">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1041">
+        <v>0</v>
+      </c>
+      <c r="E1041">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1042">
+        <v>0</v>
+      </c>
+      <c r="E1042">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>590</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1043">
+        <v>0</v>
+      </c>
+      <c r="E1043">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1044">
+        <v>0</v>
+      </c>
+      <c r="E1044">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>592</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1045">
+        <v>0</v>
+      </c>
+      <c r="E1045">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>593</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1046">
+        <v>0</v>
+      </c>
+      <c r="E1046">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>593</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>594</v>
+      </c>
+      <c r="D1047">
+        <v>0</v>
+      </c>
+      <c r="E1047">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>595</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1048">
+        <v>0</v>
+      </c>
+      <c r="E1048">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>596</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1049">
+        <v>0</v>
+      </c>
+      <c r="E1049">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
